--- a/data/children_club/data.xlsx
+++ b/data/children_club/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +534,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>34.3381769</v>
+        <v>34.33767733748235</v>
       </c>
       <c r="C3" t="str">
-        <v>134.0395831</v>
+        <v>134.0441460646726</v>
       </c>
       <c r="D3" t="str">
         <v>放課後児童クラブるぽ</v>
       </c>
       <c r="E3" t="str">
-        <v>亀岡町２番１８号</v>
+        <v>中央町5番26</v>
       </c>
       <c r="F3" t="str">
         <v>087-802-3757</v>
@@ -732,7 +732,7 @@
 （保険料800円を含む）</v>
       </c>
       <c r="Q5" t="str">
-        <v>―</v>
+        <v>—</v>
       </c>
       <c r="R5" t="str">
         <v>利用料に含む</v>
@@ -896,153 +896,207 @@
 ・兄弟姉妹割引あり</v>
       </c>
     </row>
-    <row r="8" xml:space="preserve">
+    <row r="8">
       <c r="A8" t="str">
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>34.3387365</v>
+        <v>34.3334381</v>
       </c>
       <c r="C8" t="str">
-        <v>134.0515577</v>
+        <v>134.0463305</v>
       </c>
       <c r="D8" t="str">
-        <v>アーキペラゴ放課後児童クラブ</v>
+        <v>学童保育ハルクラブ第３教室</v>
       </c>
       <c r="E8" t="str">
-        <v>高松市塩上町一丁目２番７号</v>
+        <v xml:space="preserve"> 藤塚町一丁目１２番４号 ２階</v>
       </c>
       <c r="F8" t="str">
-        <v>087-813-1001</v>
+        <v xml:space="preserve"> 087-802-4586</v>
       </c>
       <c r="G8" t="str">
         <v>小学1～6年生</v>
       </c>
       <c r="H8" t="str">
+        <v xml:space="preserve"> 33人</v>
+      </c>
+      <c r="I8" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J8" t="str">
+        <v>放課後～18:30 土曜日　7:30～18:30</v>
+      </c>
+      <c r="K8" t="str">
+        <v>【定期】　　月～金　13,000円/月 　　　　　　土曜日　1,000円/日 　　　　学校休業日　500円加算/日 【不定期】　月～金　1,300円/日 　　　　　　土曜日　2,000円/日 　　　　学校休業日　2,000円/日</v>
+      </c>
+      <c r="L8" t="str">
+        <v xml:space="preserve"> 18:30～19:00</v>
+      </c>
+      <c r="M8" t="str">
+        <v>300円／30分</v>
+      </c>
+      <c r="N8" t="str">
+        <v xml:space="preserve">7:30～18:30 （延長は平常時と同じ） </v>
+      </c>
+      <c r="O8" t="str">
+        <v>【定期】500円加算／日 （8月は最大6,000円加算） 【不定期】2,000円／日 （夏休み8月利用料は25,000円）</v>
+      </c>
+      <c r="P8" t="str">
+        <v>入会金　3,000円 【定期】年会費　3,000円/年 【不定期】年会費　1,500円/年</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>年会費に含む</v>
+      </c>
+      <c r="R8" t="str">
+        <v xml:space="preserve"> 利用料に含む</v>
+      </c>
+      <c r="S8" t="str">
+        <v xml:space="preserve"> 各自持参・弁当注文可能</v>
+      </c>
+      <c r="T8" t="str">
+        <v>・定期（月極コース）はハルカルチャーにおける 習い事1種類の受講が含まれる。 ・一人親家庭入会金免除、兄弟姉妹割引あり ・土曜日については15:30の時点で預かりがなけ れば閉室</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str">
+        <v>9</v>
+      </c>
+      <c r="B9" t="str">
+        <v>34.3387365</v>
+      </c>
+      <c r="C9" t="str">
+        <v>134.0515577</v>
+      </c>
+      <c r="D9" t="str">
+        <v>アーキペラゴ放課後児童クラブ</v>
+      </c>
+      <c r="E9" t="str">
+        <v>高松市塩上町一丁目２番７号</v>
+      </c>
+      <c r="F9" t="str">
+        <v>087-813-1001</v>
+      </c>
+      <c r="G9" t="str">
+        <v>小学1～6年生</v>
+      </c>
+      <c r="H9" t="str">
         <v>25人</v>
       </c>
-      <c r="I8" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J8" t="str" xml:space="preserve">
+      <c r="I9" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J9" t="str" xml:space="preserve">
         <v xml:space="preserve">放課後～18:00
 土曜日　9:00～18:00</v>
       </c>
-      <c r="K8" t="str" xml:space="preserve">
+      <c r="K9" t="str" xml:space="preserve">
         <v xml:space="preserve">【定期】　長期休暇月以外
 　　　　　月～金曜日　　20,000円/月
 　　　　　月～土曜日　　30,000円/月
 【不定期】1,000円（３時間以内）</v>
       </c>
-      <c r="L8" t="str">
+      <c r="L9" t="str">
         <v>平日・土曜日・長期　18:00～１９:00　　　　　　　　　　　　　　土曜日・長期のみ　　８:00～　９:00</v>
       </c>
-      <c r="M8" t="str">
+      <c r="M9" t="str">
         <v>500円/30分</v>
       </c>
-      <c r="N8" t="str">
+      <c r="N9" t="str">
         <v>9:00～18:00</v>
       </c>
-      <c r="O8" t="str" xml:space="preserve">
+      <c r="O9" t="str" xml:space="preserve">
         <v xml:space="preserve">1、3、4、7、12月　　30,000円/月
                        ８月　　36,000円/月</v>
       </c>
-      <c r="P8" t="str" xml:space="preserve">
+      <c r="P9" t="str" xml:space="preserve">
         <v xml:space="preserve">【定期】3,000円/年（保険料800円を含む）
 【不定期】3,000円/年（保険料800円が別途必要）</v>
       </c>
-      <c r="Q8" t="str">
+      <c r="Q9" t="str">
         <v>ー</v>
       </c>
-      <c r="R8" t="str" xml:space="preserve">
+      <c r="R9" t="str" xml:space="preserve">
         <v xml:space="preserve">【定期】利用料に含む
 【不定期】100円/1日</v>
       </c>
-      <c r="S8" t="str" xml:space="preserve">
+      <c r="S9" t="str" xml:space="preserve">
         <v xml:space="preserve">各自持参、一緒に買いに行く
 （長期休暇中）</v>
       </c>
-      <c r="T8" t="str" xml:space="preserve">
+      <c r="T9" t="str" xml:space="preserve">
         <v xml:space="preserve">一人親家庭割引有り
 （登録料免除、利用料割引）
 兄弟姉妹割引有り
 （２人目以降登録料免除、利用料割引）</v>
       </c>
     </row>
-    <row r="9" xml:space="preserve">
-      <c r="A9" t="str">
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B10" t="str">
         <v>34.3424917</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C10" t="str">
         <v>134.0592149</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D10" t="str">
         <v>ふくふく児童クラブ</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E10" t="str">
         <v>松福町一丁目12番20号</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F10" t="str">
         <v>087-802-6336</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G10" t="str">
         <v>小学1～6年生（低学年優先）</v>
       </c>
-      <c r="H9" t="str">
+      <c r="H10" t="str">
         <v>40人</v>
       </c>
-      <c r="I9" t="str" xml:space="preserve">
+      <c r="I10" t="str" xml:space="preserve">
         <v xml:space="preserve">月～土曜日
 土曜日はクラブの指定する日</v>
       </c>
-      <c r="J9" t="str" xml:space="preserve">
-        <v xml:space="preserve">放課後～18:00
-土曜日　9：00～18：00</v>
-      </c>
-      <c r="K9" t="str" xml:space="preserve">
-        <v xml:space="preserve">　　　月～金曜日　　6,000円/月
-　　　土曜日（～16：30）750円／日
-　　　土曜日（～18：00）900円／日</v>
-      </c>
-      <c r="L9" t="str">
+      <c r="J10" t="str">
+        <v>放課後～18:00土曜日　9：00～17：00</v>
+      </c>
+      <c r="K10" t="str">
+        <v xml:space="preserve">　　　月～金曜日　　6,000円/月　　　土曜日　450円／日　　</v>
+      </c>
+      <c r="L10" t="str">
         <v>8:00～9:00、18:00～19:00</v>
       </c>
-      <c r="M9" t="str" xml:space="preserve">
-        <v xml:space="preserve">【登録者】 2,000円/月（8：00～）
-　　　　 　1,000円/月（8：30～）
-　　　　 　1,000円/月（～18：30）
-　　　　 　2,000円/月（～19：00）
-　　　　　 　１00円/30分
-（【非登録者】は別途規定有）</v>
-      </c>
-      <c r="N9" t="str">
+      <c r="M10" t="str">
+        <v>【登録者】 2,500円/月（7：45～）　　　　　2,000円/月（8：00～）　　　　 　1,000円/月（8：30～）　　　　 　1,000円/月（～18：30）　　　　 　2,000円/月（～19：00）　　　　　 　１00円/30分（【非登録者】は別途規定有）</v>
+      </c>
+      <c r="N10" t="str">
         <v>9:00～18:00</v>
       </c>
-      <c r="O9" t="str" xml:space="preserve">
+      <c r="O10" t="str" xml:space="preserve">
         <v xml:space="preserve">【登録者】（春休み・冬休みは別途規定有）
 　7月　７,000円
 　8月　12,000円
 【非登録者】（春休み・冬休みは別途規定有）
 　夏休み全期間　17,000円</v>
       </c>
-      <c r="P9" t="str" xml:space="preserve">
+      <c r="P10" t="str" xml:space="preserve">
         <v xml:space="preserve">3,000円/年
 （保険料を含む）</v>
       </c>
-      <c r="Q9" t="str">
+      <c r="Q10" t="str">
         <v>ー</v>
       </c>
-      <c r="R9" t="str" xml:space="preserve">
+      <c r="R10" t="str" xml:space="preserve">
         <v xml:space="preserve">１,000円/月
 （長期休暇中・非登録者は別途規定有）</v>
       </c>
-      <c r="S9" t="str">
+      <c r="S10" t="str">
         <v>各自持参</v>
       </c>
-      <c r="T9" t="str" xml:space="preserve">
+      <c r="T10" t="str" xml:space="preserve">
         <v xml:space="preserve">・兄弟姉妹割引あり
 ・学校休校日、警報発令時開室
 ・下校時のお迎え（有料）あり
@@ -1050,259 +1104,259 @@
 　　　　　　　　　</v>
       </c>
     </row>
-    <row r="10" xml:space="preserve">
-      <c r="A10" t="str">
-        <v>9</v>
-      </c>
-      <c r="B10" t="str">
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
         <v>34.3341005</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C11" t="str">
         <v>134.0714996</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D11" t="str">
         <v>学童保育アローナック</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E11" t="str">
         <v>木太町2344番地1</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F11" t="str">
         <v>087-813-2278</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G11" t="str">
         <v>小学1～6年生</v>
       </c>
-      <c r="H10" t="str">
+      <c r="H11" t="str">
         <v>40人</v>
       </c>
-      <c r="I10" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J10" t="str" xml:space="preserve">
+      <c r="I11" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J11" t="str" xml:space="preserve">
         <v xml:space="preserve">放課後～19:00
 土曜日　8:00～19:00</v>
       </c>
-      <c r="K10" t="str" xml:space="preserve">
+      <c r="K11" t="str" xml:space="preserve">
         <v xml:space="preserve">月～金曜日(週５日利用)   15,000円/月　　　　　    　　　　　　　　月～金曜日(週４日利用)   14,000円/月　　　　　　    　　　　　　　土曜日　午前８時～午後１時までの５時間　750円　　　　　　　　　
 　　　　午後１時～午後７時までの５時間　750円　
 　午前８時～午後７時までの１１時間　１５００円　</v>
       </c>
-      <c r="L10" t="str">
+      <c r="L11" t="str">
         <v>19:00～22:00</v>
       </c>
-      <c r="M10" t="str">
+      <c r="M11" t="str">
         <v>500円/時間</v>
       </c>
-      <c r="N10" t="str">
+      <c r="N11" t="str">
         <v>8:00～19:00</v>
       </c>
-      <c r="O10" t="str">
+      <c r="O11" t="str">
         <v>3、8、12月　25,000円/月</v>
       </c>
-      <c r="P10" t="str">
+      <c r="P11" t="str">
         <v>年会費　5,000円/年</v>
       </c>
-      <c r="Q10" t="str">
+      <c r="Q11" t="str">
         <v>800円/年</v>
       </c>
-      <c r="R10" t="str">
+      <c r="R11" t="str">
         <v>利用料に含む</v>
       </c>
-      <c r="S10" t="str">
+      <c r="S11" t="str">
         <v>各自持参</v>
       </c>
-      <c r="T10" t="str" xml:space="preserve">
+      <c r="T11" t="str" xml:space="preserve">
         <v xml:space="preserve">兄弟姉妹割引あり
 （２人目以降年会費免除、利用料割引）</v>
       </c>
     </row>
-    <row r="11" xml:space="preserve">
-      <c r="A11" t="str">
-        <v>10</v>
-      </c>
-      <c r="B11" t="str">
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
         <v>34.3136152</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C12" t="str">
         <v>134.0557809</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D12" t="str">
         <v>アフタースクール香川</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E12" t="str">
         <v>伏石町2078番地10</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F12" t="str">
         <v>087-864-6812/090-6604-8772</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G12" t="str">
         <v>小学1～6年生</v>
       </c>
-      <c r="H11" t="str">
+      <c r="H12" t="str">
         <v>85人</v>
       </c>
-      <c r="I11" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J11" t="str" xml:space="preserve">
+      <c r="I12" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J12" t="str" xml:space="preserve">
         <v xml:space="preserve">放課後～19:00
 土曜日　7:30～19:00</v>
       </c>
-      <c r="K11" t="str" xml:space="preserve">
+      <c r="K12" t="str" xml:space="preserve">
         <v xml:space="preserve">【定期】　月～金曜日　10,000円/月
 【不定期】　300円/時間（1,500円/日）
 　　　　　1,000円/月
      （全く利用しない月のみ継続維持費として）　　　　　　　　　　　　　　　　　　　　　　　　　　【土曜日限定】　4,000円/月</v>
       </c>
-      <c r="L11" t="str">
+      <c r="L12" t="str">
         <v>月～金曜日（19:00～19:30）</v>
       </c>
-      <c r="M11" t="str" xml:space="preserve">
+      <c r="M12" t="str" xml:space="preserve">
         <v xml:space="preserve">19:00を越える場合
 500円/30分</v>
       </c>
-      <c r="N11" t="str">
+      <c r="N12" t="str">
         <v>7:30～19:00（延長保育あり）</v>
       </c>
-      <c r="O11" t="str" xml:space="preserve">
+      <c r="O12" t="str" xml:space="preserve">
         <v xml:space="preserve">夏休み期間のみ
 【定期】平常時と同額に　200円×利用日数を加算
 【不定期】平常時と同額に　100円×利用日数を加算</v>
       </c>
-      <c r="P11" t="str">
+      <c r="P12" t="str">
         <v>1世帯4,200円/年</v>
       </c>
-      <c r="Q11" t="str">
+      <c r="Q12" t="str">
         <v>800円/年</v>
       </c>
-      <c r="R11" t="str">
+      <c r="R12" t="str">
         <v>100円/日</v>
       </c>
-      <c r="S11" t="str">
+      <c r="S12" t="str">
         <v>各自持参</v>
       </c>
-      <c r="T11" t="str" xml:space="preserve">
+      <c r="T12" t="str" xml:space="preserve">
         <v xml:space="preserve">兄弟姉妹割引・ひとり親割引あり
 下校時のお迎え（有料）あり</v>
       </c>
     </row>
-    <row r="12" xml:space="preserve">
-      <c r="A12" t="str">
-        <v>11</v>
-      </c>
-      <c r="B12" t="str">
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
         <v>34.3107719</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C13" t="str">
         <v>134.0606605</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D13" t="str">
         <v>こぶし中央保育園（のびっこ教室）</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E13" t="str">
         <v>松縄町1142番地7</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F13" t="str">
         <v>087-866-7169</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G13" t="str">
         <v>小学1～6年生</v>
       </c>
-      <c r="H12" t="str" xml:space="preserve">
+      <c r="H13" t="str" xml:space="preserve">
         <v xml:space="preserve">40人
 （長期休暇60人）</v>
       </c>
-      <c r="I12" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J12" t="str" xml:space="preserve">
+      <c r="I13" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J13" t="str" xml:space="preserve">
         <v xml:space="preserve">放課後～18:00
 土曜日　8:30～18:00</v>
       </c>
-      <c r="K12" t="str" xml:space="preserve">
+      <c r="K13" t="str" xml:space="preserve">
         <v xml:space="preserve">月～金曜日　5,000円/月　
 　   土曜日　     50円/時間　　
 （月登録以外は100円/時間）</v>
       </c>
-      <c r="L12" t="str">
+      <c r="L13" t="str">
         <v>７:00～8:30、18:00～19:00</v>
       </c>
-      <c r="M12" t="str" xml:space="preserve">
+      <c r="M13" t="str" xml:space="preserve">
         <v xml:space="preserve">100円/30分
 200円/時間</v>
       </c>
-      <c r="N12" t="str">
+      <c r="N13" t="str">
         <v>8:30～18:00</v>
       </c>
-      <c r="O12" t="str" xml:space="preserve">
+      <c r="O13" t="str" xml:space="preserve">
         <v xml:space="preserve">＜8月利用＞  月～金曜日         7,500円/月
 ＜７、8月の長期のみの利用＞  9,500円</v>
       </c>
-      <c r="P12" t="str" xml:space="preserve">
+      <c r="P13" t="str" xml:space="preserve">
         <v xml:space="preserve">500円
 （初回利用時・保険料含む）</v>
       </c>
-      <c r="Q12" t="str">
-        <v>―</v>
-      </c>
-      <c r="R12" t="str">
+      <c r="Q13" t="str">
+        <v>—</v>
+      </c>
+      <c r="R13" t="str">
         <v>100円/日</v>
       </c>
-      <c r="S12" t="str">
+      <c r="S13" t="str">
         <v>各自弁当持参</v>
       </c>
-      <c r="T12" t="str">
+      <c r="T13" t="str">
         <v>長期休暇のみの方は、ご相談ください。</v>
       </c>
     </row>
-    <row r="13" xml:space="preserve">
-      <c r="A13" t="str">
-        <v>12</v>
-      </c>
-      <c r="B13" t="str">
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
         <v>34.3390441</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C14" t="str">
         <v>134.0777782</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D14" t="str">
         <v>アーク放課後スクール</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E14" t="str">
         <v>木太町２６７０番地４</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F14" t="str">
         <v>087-837-9051</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G14" t="str">
         <v>小学1～6年生</v>
       </c>
-      <c r="H13" t="str">
+      <c r="H14" t="str">
         <v>４０人</v>
       </c>
-      <c r="I13" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J13" t="str" xml:space="preserve">
+      <c r="I14" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J14" t="str" xml:space="preserve">
         <v xml:space="preserve">放課後～19:00
 土曜日　8:00～18:00</v>
       </c>
-      <c r="K13" t="str" xml:space="preserve">
+      <c r="K14" t="str" xml:space="preserve">
         <v xml:space="preserve">【定期】　　月～金曜日　13,000円/月
 　　　　　　土曜日　1,500円/日
 【不定期】　月～金曜日　1,300円/日
 　　　　　　土曜日　2,000円/日</v>
       </c>
-      <c r="L13" t="str">
+      <c r="L14" t="str">
         <v>7:30～8:00、19:00～21:00</v>
       </c>
-      <c r="M13" t="str">
+      <c r="M14" t="str">
         <v>500円/30分</v>
       </c>
-      <c r="N13" t="str">
+      <c r="N14" t="str">
         <v>8:00～18:00</v>
       </c>
-      <c r="O13" t="str" xml:space="preserve">
+      <c r="O14" t="str" xml:space="preserve">
         <v xml:space="preserve">1.3.4.7.12月【定期】月～金曜日(8時間)18,000円/月 例:8:00～15:00など
 月～金曜日(8時間以上)21,000円/月 土曜日2,000円/日
 【不定期】月～土曜日　2,500円/日
@@ -1311,120 +1365,41 @@
 土曜日2,000円/日
 【不定期】月～土曜日2,500円/日</v>
       </c>
-      <c r="P13" t="str">
+      <c r="P14" t="str">
         <v>【定期】3,000円/年　【不定期】1,500円/年</v>
       </c>
-      <c r="Q13" t="str">
+      <c r="Q14" t="str">
         <v>500円/年</v>
       </c>
-      <c r="R13" t="str">
+      <c r="R14" t="str">
         <v>利用料に含む</v>
       </c>
-      <c r="S13" t="str">
+      <c r="S14" t="str">
         <v>弁当各自持参</v>
       </c>
-      <c r="T13" t="str" xml:space="preserve">
+      <c r="T14" t="str" xml:space="preserve">
         <v xml:space="preserve">兄弟割引あり
 警報発令時開園
 緊急下校へのお迎え対応あり
 長期休暇のみの方はご相談ください。</v>
       </c>
     </row>
-    <row r="14" xml:space="preserve">
-      <c r="A14" t="str">
-        <v>13</v>
-      </c>
-      <c r="B14" t="str">
-        <v>34.3027567</v>
-      </c>
-      <c r="C14" t="str">
-        <v>134.0484587</v>
-      </c>
-      <c r="D14" t="str" xml:space="preserve">
-        <v xml:space="preserve">学童クラブ　すり～ふれんず
-第１教室</v>
-      </c>
-      <c r="E14" t="str">
-        <v>太田下町1676番地３</v>
-      </c>
-      <c r="F14" t="str">
-        <v>087-864-3103/087-864-3137</v>
-      </c>
-      <c r="G14" t="str">
-        <v>小学1～6年生</v>
-      </c>
-      <c r="H14" t="str">
-        <v>30人</v>
-      </c>
-      <c r="I14" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J14" t="str" xml:space="preserve">
-        <v xml:space="preserve">放課後～19:00
-土曜日  7:30～18:00</v>
-      </c>
-      <c r="K14" t="str" xml:space="preserve">
-        <v xml:space="preserve">【定期】   月～金曜日              15,000円/月
-   　　　　土曜日
-　　　　　7：30～13：00　　 600円
-　　　　　13：00～18：00　　900円　   　 
-【不定期】月～金曜日        　　1,200円/日
-　　　　　土曜日
-　　　　 　7：30～13：00          800円
-　　　　　13：00～18：00     1,200円　　　　</v>
-      </c>
-      <c r="L14" t="str" xml:space="preserve">
-        <v xml:space="preserve">　        　　7:00～7:30
-月～金　19:00～20:00
-土曜日　18:00～19:30</v>
-      </c>
-      <c r="M14" t="str">
-        <v>500円/時間</v>
-      </c>
-      <c r="N14" t="str">
-        <v>7:30～19:00</v>
-      </c>
-      <c r="O14" t="str" xml:space="preserve">
-        <v xml:space="preserve">【定期】 　１、３、４、７、１２月　
-           　　　　                    20,000円/月
- 　　　　  ８月 　                  25,000円/月
-【不定期】 8:0０～13:00           800円/日
-　           13:00～19:00        1,200円/日</v>
-      </c>
-      <c r="P14" t="str">
-        <v>（新規）5,000円　（継続）4,500円</v>
-      </c>
-      <c r="Q14" t="str">
-        <v>800円/年</v>
-      </c>
-      <c r="R14" t="str">
-        <v>利用料に含む</v>
-      </c>
-      <c r="S14" t="str">
-        <v>各自持参</v>
-      </c>
-      <c r="T14" t="str" xml:space="preserve">
-        <v xml:space="preserve">兄弟姉妹割引あり（入会金１名分のみ）
-兄弟姉妹割引あり（保育料）
-母子家庭又は父子家庭（登録料免除）</v>
-      </c>
-    </row>
     <row r="15" xml:space="preserve">
       <c r="A15" t="str">
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <v>34.3028976</v>
+        <v>34.3027567</v>
       </c>
       <c r="C15" t="str">
-        <v>134.0504708</v>
+        <v>134.0484587</v>
       </c>
       <c r="D15" t="str" xml:space="preserve">
         <v xml:space="preserve">学童クラブ　すり～ふれんず
-第２教室</v>
+第１教室</v>
       </c>
       <c r="E15" t="str">
-        <v>太田下町1676番地1</v>
+        <v>太田下町1676番地３</v>
       </c>
       <c r="F15" t="str">
         <v>087-864-3103/087-864-3137</v>
@@ -1433,7 +1408,7 @@
         <v>小学1～6年生</v>
       </c>
       <c r="H15" t="str">
-        <v>40人</v>
+        <v>30人</v>
       </c>
       <c r="I15" t="str">
         <v>月～土曜日</v>
@@ -1461,9 +1436,88 @@
         <v>500円/時間</v>
       </c>
       <c r="N15" t="str">
+        <v>7:30～19:00</v>
+      </c>
+      <c r="O15" t="str" xml:space="preserve">
+        <v xml:space="preserve">【定期】 　１、３、４、７、１２月　
+           　　　　                    20,000円/月
+ 　　　　  ８月 　                  25,000円/月
+【不定期】 8:0０～13:00           800円/日
+　           13:00～19:00        1,200円/日</v>
+      </c>
+      <c r="P15" t="str">
+        <v>（新規）5,000円　（継続）4,500円</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>800円/年</v>
+      </c>
+      <c r="R15" t="str">
+        <v>利用料に含む</v>
+      </c>
+      <c r="S15" t="str">
+        <v>各自持参</v>
+      </c>
+      <c r="T15" t="str" xml:space="preserve">
+        <v xml:space="preserve">兄弟姉妹割引あり（入会金１名分のみ）
+兄弟姉妹割引あり（保育料）
+母子家庭又は父子家庭（登録料免除）</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>34.3028976</v>
+      </c>
+      <c r="C16" t="str">
+        <v>134.0504708</v>
+      </c>
+      <c r="D16" t="str" xml:space="preserve">
+        <v xml:space="preserve">学童クラブ　すり～ふれんず
+第２教室</v>
+      </c>
+      <c r="E16" t="str">
+        <v>太田下町1676番地1</v>
+      </c>
+      <c r="F16" t="str">
+        <v>087-864-3103/087-864-3137</v>
+      </c>
+      <c r="G16" t="str">
+        <v>小学1～6年生</v>
+      </c>
+      <c r="H16" t="str">
+        <v>40人</v>
+      </c>
+      <c r="I16" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J16" t="str" xml:space="preserve">
+        <v xml:space="preserve">放課後～19:00
+土曜日  7:30～18:00</v>
+      </c>
+      <c r="K16" t="str" xml:space="preserve">
+        <v xml:space="preserve">【定期】   月～金曜日              15,000円/月
+   　　　　土曜日
+　　　　　7：30～13：00　　 600円
+　　　　　13：00～18：00　　900円　   　 
+【不定期】月～金曜日        　　1,200円/日
+　　　　　土曜日
+　　　　 　7：30～13：00          800円
+　　　　　13：00～18：00     1,200円　　　　</v>
+      </c>
+      <c r="L16" t="str" xml:space="preserve">
+        <v xml:space="preserve">　        　　7:00～7:30
+月～金　19:00～20:00
+土曜日　18:00～19:30</v>
+      </c>
+      <c r="M16" t="str">
+        <v>500円/時間</v>
+      </c>
+      <c r="N16" t="str">
         <v>7:30～19:00（延長保育あり）</v>
       </c>
-      <c r="O15" t="str" xml:space="preserve">
+      <c r="O16" t="str" xml:space="preserve">
         <v xml:space="preserve">【定期】 　
 １、３、４、７、１２月　        　　　　                  20,000円/月
 ８月 　                  
@@ -1474,92 +1528,24 @@
 13:00～19:00        
 1,200円/日</v>
       </c>
-      <c r="P15" t="str">
+      <c r="P16" t="str">
         <v>（新規）5,000円　（継続）4,500円</v>
       </c>
-      <c r="Q15" t="str">
+      <c r="Q16" t="str">
         <v>800円/年</v>
       </c>
-      <c r="R15" t="str">
+      <c r="R16" t="str">
         <v>利用料に含む</v>
       </c>
-      <c r="S15" t="str">
+      <c r="S16" t="str">
         <v>各自持参</v>
       </c>
-      <c r="T15" t="str" xml:space="preserve">
+      <c r="T16" t="str" xml:space="preserve">
         <v xml:space="preserve">兄弟姉妹割引あり（入会金1名分のみ）
 兄弟姉妹割引あり（保育料）
 母子家庭又は父子家庭（登録料免除）</v>
       </c>
     </row>
-    <row r="16" xml:space="preserve">
-      <c r="A16" t="str">
-        <v>15</v>
-      </c>
-      <c r="B16" t="str">
-        <v>34.2915888</v>
-      </c>
-      <c r="C16" t="str">
-        <v>134.0437701</v>
-      </c>
-      <c r="D16" t="str">
-        <v>学童保育なかよしｸﾗﾌﾞ（第１）</v>
-      </c>
-      <c r="E16" t="str">
-        <v>多肥上町1番地3</v>
-      </c>
-      <c r="F16" t="str">
-        <v>087-880-1588/080-5664-7790</v>
-      </c>
-      <c r="G16" t="str">
-        <v>小学1～6年生</v>
-      </c>
-      <c r="H16" t="str">
-        <v>70人（長期休暇中のみの利用を含む）</v>
-      </c>
-      <c r="I16" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J16" t="str" xml:space="preserve">
-        <v xml:space="preserve">放課後～19:30
-土曜日　7:30～19:30</v>
-      </c>
-      <c r="K16" t="str" xml:space="preserve">
-        <v xml:space="preserve">10,000円/月
-  1,200円/日
-       700円/半日</v>
-      </c>
-      <c r="L16" t="str" xml:space="preserve">
-        <v xml:space="preserve">７:00～7:30、19:30～20:00
-（保護者の送迎の場合のみ）</v>
-      </c>
-      <c r="M16" t="str">
-        <v>平常時の利用料に含む</v>
-      </c>
-      <c r="N16" t="str">
-        <v>7:30～19:30</v>
-      </c>
-      <c r="O16" t="str">
-        <v>1,200円/日</v>
-      </c>
-      <c r="P16" t="str" xml:space="preserve">
-        <v xml:space="preserve">【新規】　　3,000円/年
-【継続】　　2,000円/年</v>
-      </c>
-      <c r="Q16" t="str">
-        <v>800円/年</v>
-      </c>
-      <c r="R16" t="str">
-        <v>100円/日</v>
-      </c>
-      <c r="S16" t="str">
-        <v>各自持参</v>
-      </c>
-      <c r="T16" t="str" xml:space="preserve">
-        <v xml:space="preserve">兄弟姉妹割引有、お迎え（有料）
-その他諸費あり</v>
-      </c>
-    </row>
     <row r="17" xml:space="preserve">
       <c r="A17" t="str">
         <v>16</v>
@@ -1568,13 +1554,13 @@
         <v>34.2915888</v>
       </c>
       <c r="C17" t="str">
-        <v>134.0415814</v>
+        <v>134.0437701</v>
       </c>
       <c r="D17" t="str">
-        <v>学童保育なかよしｸﾗﾌﾞ（第２）</v>
+        <v>学童保育なかよしクラブ（第１）</v>
       </c>
       <c r="E17" t="str">
-        <v>多肥上町310番地8</v>
+        <v>多肥上町1番地3</v>
       </c>
       <c r="F17" t="str">
         <v>087-880-1588/080-5664-7790</v>
@@ -1583,7 +1569,7 @@
         <v>小学1～6年生</v>
       </c>
       <c r="H17" t="str">
-        <v>22人（長期休暇中のみの利用を含む）</v>
+        <v>70人（長期休暇中のみの利用を含む）</v>
       </c>
       <c r="I17" t="str">
         <v>月～土曜日</v>
@@ -1592,17 +1578,15 @@
         <v xml:space="preserve">放課後～19:30
 土曜日　7:30～19:30</v>
       </c>
-      <c r="K17" t="str" xml:space="preserve">
-        <v xml:space="preserve">10,000円/月
-  1,200円/日
-        700円/半日</v>
+      <c r="K17" t="str">
+        <v>10,000円/月 10,000円未満の場合は以下の日割り  平日　700円/日 土曜日　1,200円/日</v>
       </c>
       <c r="L17" t="str" xml:space="preserve">
         <v xml:space="preserve">７:00～7:30、19:30～20:00
 （保護者の送迎の場合のみ）</v>
       </c>
       <c r="M17" t="str">
-        <v>平常時の利用料に含む</v>
+        <v>７:00～7:30　300円 19:30～20:00　300円/30分</v>
       </c>
       <c r="N17" t="str">
         <v>7:30～19:30</v>
@@ -1633,630 +1617,614 @@
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <v>34.2784339</v>
+        <v>34.2915888</v>
       </c>
       <c r="C18" t="str">
-        <v>134.0542943</v>
+        <v>134.0415814</v>
       </c>
       <c r="D18" t="str">
-        <v>学童保育Ciao（ちゃお）</v>
+        <v>学童保育なかよしクラブ（第２）</v>
       </c>
       <c r="E18" t="str">
-        <v>多肥上町2042番地17</v>
+        <v>多肥上町310番地8</v>
       </c>
       <c r="F18" t="str">
-        <v>087-816-1313</v>
+        <v>087-880-1588/080-5664-7790</v>
       </c>
       <c r="G18" t="str">
         <v>小学1～6年生</v>
       </c>
       <c r="H18" t="str">
+        <v>22人（長期休暇中のみの利用を含む）</v>
+      </c>
+      <c r="I18" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J18" t="str" xml:space="preserve">
+        <v xml:space="preserve">放課後～19:30
+土曜日　7:30～19:30</v>
+      </c>
+      <c r="K18" t="str">
+        <v>10,000円/月 10,000円未満の場合は以下の日割り  平日　700円/日 土曜日　1,200円/日</v>
+      </c>
+      <c r="L18" t="str" xml:space="preserve">
+        <v xml:space="preserve">７:00～7:30、19:30～20:00
+（保護者の送迎の場合のみ）</v>
+      </c>
+      <c r="M18" t="str">
+        <v>７:00～7:30　300円 19:30～20:00　300円/30分</v>
+      </c>
+      <c r="N18" t="str">
+        <v>7:30～19:30</v>
+      </c>
+      <c r="O18" t="str">
+        <v>1,200円/日</v>
+      </c>
+      <c r="P18" t="str" xml:space="preserve">
+        <v xml:space="preserve">【新規】　　3,000円/年
+【継続】　　2,000円/年</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>800円/年</v>
+      </c>
+      <c r="R18" t="str">
+        <v>100円/日</v>
+      </c>
+      <c r="S18" t="str">
+        <v>各自持参</v>
+      </c>
+      <c r="T18" t="str" xml:space="preserve">
+        <v xml:space="preserve">兄弟姉妹割引有、お迎え（有料）
+その他諸費あり</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>34.2784339</v>
+      </c>
+      <c r="C19" t="str">
+        <v>134.0542943</v>
+      </c>
+      <c r="D19" t="str">
+        <v>学童保育Ciao（ちゃお）</v>
+      </c>
+      <c r="E19" t="str">
+        <v>多肥上町2042番地17</v>
+      </c>
+      <c r="F19" t="str">
+        <v>087-816-1313</v>
+      </c>
+      <c r="G19" t="str">
+        <v>小学1～6年生</v>
+      </c>
+      <c r="H19" t="str">
         <v>45人</v>
       </c>
-      <c r="I18" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J18" t="str">
+      <c r="I19" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J19" t="str">
         <v>放課後～19:00                                                 土曜日　8:00～18:00</v>
       </c>
-      <c r="K18" t="str" xml:space="preserve">
+      <c r="K19" t="str" xml:space="preserve">
         <v xml:space="preserve">【定期】　月～金曜日　15,000円/月(軽食付）　　　　
 【土曜日】定期　   2,000円/日（デザート付）</v>
       </c>
-      <c r="L18" t="str" xml:space="preserve">
+      <c r="L19" t="str" xml:space="preserve">
         <v xml:space="preserve">7:30～8:00、19:00～20:00
 (土曜日の延長保育はありません）</v>
       </c>
-      <c r="M18" t="str">
+      <c r="M19" t="str">
         <v>500円/30分</v>
       </c>
-      <c r="N18" t="str" xml:space="preserve">
+      <c r="N19" t="str" xml:space="preserve">
         <v xml:space="preserve">7:30～18:30
 （延長は18時30分以降のみ）</v>
       </c>
-      <c r="O18" t="str" xml:space="preserve">
-        <v xml:space="preserve">７月
-【定期】　　 平常料金（デザート付）　　　　　　　　　　　　　　　　
-8月
-【定期】　　 30,000円/月（デザート付）　　　　　　　　　　　　　　　　</v>
-      </c>
-      <c r="P18" t="str" xml:space="preserve">
+      <c r="O19" t="str">
+        <v>【3,4,7,12,1月】 15,000円/月に700円×午前利用日数を加算 【8月】 30,000円/月</v>
+      </c>
+      <c r="P19" t="str" xml:space="preserve">
         <v xml:space="preserve">6,000円/年
 （継続5,000円/年）</v>
       </c>
-      <c r="Q18" t="str">
+      <c r="Q19" t="str">
         <v>800円/年</v>
       </c>
-      <c r="R18" t="str" xml:space="preserve">
+      <c r="R19" t="str" xml:space="preserve">
         <v xml:space="preserve">おやつに軽食を提供（利用料に含む）
 *長期休暇中のおやつはデザートに変更（利用料に含む）　　　</v>
       </c>
-      <c r="S18" t="str">
+      <c r="S19" t="str">
         <v>各自持参・弁当注文可能</v>
       </c>
-      <c r="T18" t="str" xml:space="preserve">
+      <c r="T19" t="str" xml:space="preserve">
         <v xml:space="preserve">・兄弟割引、ひとり親登録免除制度
 ・自宅周辺お見送り可
 ・学校休校日、警報発令時保育実施
 ・塾等お見送り要相談（近隣のみ）</v>
       </c>
     </row>
-    <row r="19" xml:space="preserve">
-      <c r="A19" t="str">
-        <v>18</v>
-      </c>
-      <c r="B19" t="str">
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
         <v>34.2952324</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C20" t="str">
         <v>134.0435703</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D20" t="str">
         <v>学童クラブおおぞら</v>
       </c>
-      <c r="E19" t="str">
-        <v>多肥上町127番地3</v>
-      </c>
-      <c r="F19" t="str">
+      <c r="E20" t="str">
+        <v>多肥下町1538番地5</v>
+      </c>
+      <c r="F20" t="str">
         <v>087-887-9366</v>
       </c>
-      <c r="G19" t="str">
+      <c r="G20" t="str">
         <v>小学1～6年生</v>
       </c>
-      <c r="H19" t="str">
+      <c r="H20" t="str">
         <v>40人</v>
       </c>
-      <c r="I19" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J19" t="str" xml:space="preserve">
+      <c r="I20" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J20" t="str" xml:space="preserve">
         <v xml:space="preserve">放課後～19:00
 土曜日　7:30～19:00</v>
       </c>
-      <c r="K19" t="str" xml:space="preserve">
-        <v xml:space="preserve">【基本】400円（1時間利用料込）
-　　　　100円/以降1時間利用毎</v>
-      </c>
-      <c r="L19" t="str">
+      <c r="K20" t="str">
+        <v xml:space="preserve">　　月～金　週３日10,000円/月 　　　　　　週５日13,000円/月</v>
+      </c>
+      <c r="L20" t="str">
         <v>19:00～20:00</v>
       </c>
-      <c r="M19" t="str">
+      <c r="M20" t="str">
         <v>500円/30分</v>
       </c>
-      <c r="N19" t="str">
+      <c r="N20" t="str">
         <v>7:30～19:00</v>
       </c>
-      <c r="O19" t="str">
-        <v>平常時利用料を適用</v>
-      </c>
-      <c r="P19" t="str">
+      <c r="O20" t="str">
+        <v>月は平常時利用料の倍額</v>
+      </c>
+      <c r="P20" t="str">
         <v>無料</v>
       </c>
-      <c r="Q19" t="str">
+      <c r="Q20" t="str">
         <v>無料（施設独自の団体保険加入あり）</v>
       </c>
-      <c r="R19" t="str">
+      <c r="R20" t="str">
         <v>上記利用料に含む</v>
       </c>
-      <c r="S19" t="str">
+      <c r="S20" t="str">
         <v>各自持参</v>
       </c>
-      <c r="T19" t="str" xml:space="preserve">
+      <c r="T20" t="str" xml:space="preserve">
         <v xml:space="preserve">無償送迎あり（学校→クラブ）
 有償送迎あり（クラブ→塾等）
 警報発令時開園
 緊急下校へのお迎え対応あり</v>
       </c>
     </row>
-    <row r="20" xml:space="preserve">
-      <c r="A20" t="str">
-        <v>19</v>
-      </c>
-      <c r="B20" t="str">
-        <v>34.3014682</v>
-      </c>
-      <c r="C20" t="str">
-        <v>134.0465886</v>
-      </c>
-      <c r="D20" t="str">
-        <v>アルペジオ放課後児童クラブ</v>
-      </c>
-      <c r="E20" t="str">
-        <v>多肥下町1524番地15</v>
-      </c>
-      <c r="F20" t="str">
-        <v>087-802-5583</v>
-      </c>
-      <c r="G20" t="str">
-        <v>小学1～6年生（1～3年生優先）</v>
-      </c>
-      <c r="H20" t="str">
-        <v>15人</v>
-      </c>
-      <c r="I20" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J20" t="str" xml:space="preserve">
-        <v xml:space="preserve">放課後～18:00
-土曜日　8:30～18:00（延長なし）</v>
-      </c>
-      <c r="K20" t="str" xml:space="preserve">
-        <v xml:space="preserve">【月～金】
-　　　　　600円/日（おやつ含む）
-【土曜日】
-  8:30～13:00　1,000円
-13:00～18:00　1,000円（おやつ含む）</v>
-      </c>
-      <c r="L20" t="str" xml:space="preserve">
-        <v xml:space="preserve">18:00～18:30（補食あり）
-(土曜日の延長保育はありません）</v>
-      </c>
-      <c r="M20" t="str">
-        <v>300円/30分</v>
-      </c>
-      <c r="N20" t="str" xml:space="preserve">
-        <v xml:space="preserve">8:30～18:00
-土曜日　8:30～18:00（延長なし）</v>
-      </c>
-      <c r="O20" t="str" xml:space="preserve">
-        <v xml:space="preserve">【月～金】　1,000円/日（おやつ含む）
-【土曜日】
-  8:30～13:00　1,000円
-13:00～18:00　1,000円（おやつ含む）</v>
-      </c>
-      <c r="P20" t="str">
-        <v>3,000円/年（保険代含む）</v>
-      </c>
-      <c r="Q20" t="str">
-        <v>―</v>
-      </c>
-      <c r="R20" t="str">
-        <v>利用料に含む</v>
-      </c>
-      <c r="S20" t="str">
-        <v>300円/1食</v>
-      </c>
-      <c r="T20" t="str" xml:space="preserve">
-        <v xml:space="preserve">下校時お迎え　（有料）
-長期休暇園外活動費用　実費徴収</v>
-      </c>
-    </row>
     <row r="21" xml:space="preserve">
       <c r="A21" t="str">
         <v>20</v>
       </c>
       <c r="B21" t="str">
+        <v>34.3014682</v>
+      </c>
+      <c r="C21" t="str">
+        <v>134.0465886</v>
+      </c>
+      <c r="D21" t="str">
+        <v>アルペジオ放課後児童クラブ</v>
+      </c>
+      <c r="E21" t="str">
+        <v>多肥上町1262番地1</v>
+      </c>
+      <c r="F21" t="str">
+        <v xml:space="preserve"> 087-813-7133</v>
+      </c>
+      <c r="G21" t="str">
+        <v>小学1～6年生（1～3年生優先）</v>
+      </c>
+      <c r="H21" t="str">
+        <v>25人</v>
+      </c>
+      <c r="I21" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J21" t="str">
+        <v>放課後～18:30 土曜日　8:30～17:30</v>
+      </c>
+      <c r="K21" t="str">
+        <v>【定期】月～金13,000円/月(おやつ代込) 【不定期】月～金1,300円/日(おやつ代込) 【土曜日】8:30～13:30　1,000円 13:30～17:30　1,000円（おやつ代込）</v>
+      </c>
+      <c r="L21" t="str">
+        <v>平日18:30～19:00 学校休業日7:30～8:00 18:30～19:00 土曜日17:30～18:30</v>
+      </c>
+      <c r="M21" t="str">
+        <v>500円/30分</v>
+      </c>
+      <c r="N21" t="str" xml:space="preserve">
+        <v xml:space="preserve">8:30～18:00
+土曜日　8:30～18:00（延長なし）</v>
+      </c>
+      <c r="O21" t="str">
+        <v>【定期】８月以外500円加算/日(おやつ代 込) 8月　20,000円/月(おやつ代込) 【不定期】  2,000円／日(おやつ代込)</v>
+      </c>
+      <c r="P21" t="str">
+        <v>3,000円/年</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>800円/年</v>
+      </c>
+      <c r="R21" t="str">
+        <v>利用料に含む</v>
+      </c>
+      <c r="S21" t="str">
+        <v>400円/1食</v>
+      </c>
+      <c r="T21" t="str" xml:space="preserve">
+        <v xml:space="preserve">下校時お迎え　（有料）
+長期休暇園外活動費用　実費徴収</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22" t="str">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
         <v>34.26986288222126</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C22" t="str">
         <v>134.0069673930353</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D22" t="str">
         <v>和光アフタースクール</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E22" t="str">
         <v>川部町1576番地4</v>
       </c>
-      <c r="F21" t="str">
+      <c r="F22" t="str">
         <v>087-814-3001</v>
       </c>
-      <c r="G21" t="str">
+      <c r="G22" t="str">
         <v>小学1～6年生（1～４年生を優先）</v>
       </c>
-      <c r="H21" t="str">
+      <c r="H22" t="str">
         <v>45人</v>
       </c>
-      <c r="I21" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J21" t="str" xml:space="preserve">
-        <v xml:space="preserve">放課後～18:30
-土曜日　8:00～18:30</v>
-      </c>
-      <c r="K21" t="str" xml:space="preserve">
+      <c r="I22" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J22" t="str">
+        <v>放課後～18:30土曜日　8:00～17:00</v>
+      </c>
+      <c r="K22" t="str" xml:space="preserve">
         <v xml:space="preserve">【定期】　　月～金　8,000円/月
 　　　　　　土曜日　   650円/日
 【不定期】　月～金　   500円/日
 　　　　　　土曜日　   750円/日
 　　　　学校休業日  　 750円/日</v>
       </c>
-      <c r="L21" t="str" xml:space="preserve">
-        <v xml:space="preserve">午前延長　 7:30～  8:00
-午後延長  18:30～19:00</v>
-      </c>
-      <c r="M21" t="str">
+      <c r="L22" t="str">
+        <v>午前延長　 7:30～8:00 午後延長 18:30～19:00 午後延長(土曜日)　17:00～17:30</v>
+      </c>
+      <c r="M22" t="str">
         <v>500円／30分</v>
       </c>
-      <c r="N21" t="str">
+      <c r="N22" t="str">
         <v>8:00～18:30</v>
       </c>
-      <c r="O21" t="str" xml:space="preserve">
+      <c r="O22" t="str" xml:space="preserve">
         <v xml:space="preserve">【定期】８月　月～金　13,000円
 その他　　250円加算／日
 【不定期】学校休業日　750円/日</v>
       </c>
-      <c r="P21" t="str" xml:space="preserve">
+      <c r="P22" t="str" xml:space="preserve">
         <v xml:space="preserve">【定期】年会費　3,500円/年
 【不定期】年会費　1,500円/年</v>
       </c>
-      <c r="Q21" t="str">
+      <c r="Q22" t="str">
         <v>800円/年</v>
       </c>
-      <c r="R21" t="str">
-        <v>100円/日</v>
-      </c>
-      <c r="S21" t="str">
+      <c r="R22" t="str">
+        <v>定期2,000円/月 不定期100円/日</v>
+      </c>
+      <c r="S22" t="str">
         <v>各自持参</v>
       </c>
-      <c r="T21" t="str">
+      <c r="T22" t="str">
         <v>兄弟姉妹割引あり（２人目以降基本利用料割引）</v>
       </c>
     </row>
-    <row r="22" xml:space="preserve">
-      <c r="A22" t="str">
-        <v>21</v>
-      </c>
-      <c r="B22" t="str">
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
         <v>34.2801871</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C23" t="str">
         <v>134.0214403</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D23" t="str">
         <v>らく楽児童クラブ</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E23" t="str">
         <v>寺井町1195番地１</v>
       </c>
-      <c r="F22" t="str">
+      <c r="F23" t="str">
         <v>087-885-6000</v>
       </c>
-      <c r="G22" t="str">
+      <c r="G23" t="str">
         <v>小学1～6年生</v>
       </c>
-      <c r="H22" t="str">
+      <c r="H23" t="str">
         <v>40人</v>
       </c>
-      <c r="I22" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J22" t="str" xml:space="preserve">
+      <c r="I23" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J23" t="str" xml:space="preserve">
         <v xml:space="preserve">放課後～18:30
 土曜日　7:30～18:30</v>
       </c>
-      <c r="K22" t="str" xml:space="preserve">
+      <c r="K23" t="str" xml:space="preserve">
         <v xml:space="preserve">月～金曜日　10,000円/月
 月～土曜日　13,500円/月
   </v>
       </c>
-      <c r="L22" t="str">
+      <c r="L23" t="str">
         <v>18:30～19:00</v>
       </c>
-      <c r="M22" t="str">
+      <c r="M23" t="str">
         <v>500円/30分</v>
       </c>
-      <c r="N22" t="str">
+      <c r="N23" t="str">
         <v>7:30～18:30</v>
       </c>
-      <c r="O22" t="str" xml:space="preserve">
+      <c r="O23" t="str" xml:space="preserve">
         <v xml:space="preserve">＜8月のみ＞
 月～金曜日　15,000円
 月～土曜日　18,500円</v>
       </c>
-      <c r="P22" t="str">
+      <c r="P23" t="str">
         <v>5,000円/年</v>
       </c>
-      <c r="Q22" t="str">
+      <c r="Q23" t="str">
         <v>800円/年</v>
       </c>
-      <c r="R22" t="str">
+      <c r="R23" t="str">
         <v>100円/日</v>
       </c>
-      <c r="S22" t="str">
+      <c r="S23" t="str">
         <v>各自持参</v>
       </c>
-      <c r="T22" t="str" xml:space="preserve">
+      <c r="T23" t="str" xml:space="preserve">
         <v xml:space="preserve">兄弟姉妹割引・ひとり親割引あり
 送迎有（一宮・円座・大野小）</v>
       </c>
     </row>
-    <row r="23" xml:space="preserve">
-      <c r="A23" t="str">
-        <v>22</v>
-      </c>
-      <c r="B23" t="str">
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
         <v>34.283981</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C24" t="str">
         <v>134.0322904</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D24" t="str">
         <v>アフタースクール空港通り</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E24" t="str">
         <v>一宮町97番地7</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F24" t="str">
         <v>070-4512-4218</v>
       </c>
-      <c r="G23" t="str">
+      <c r="G24" t="str">
         <v>小学1～6年生</v>
       </c>
-      <c r="H23" t="str">
+      <c r="H24" t="str">
         <v>15人</v>
       </c>
-      <c r="I23" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J23" t="str" xml:space="preserve">
+      <c r="I24" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J24" t="str" xml:space="preserve">
         <v xml:space="preserve">放課後～18:00
 土曜日・学校休業日　8:00～18:00</v>
       </c>
-      <c r="K23" t="str" xml:space="preserve">
+      <c r="K24" t="str" xml:space="preserve">
         <v xml:space="preserve">【定期】月～金曜日　12,000円/月
 【一時】月～金曜日　  1,000円/日
 　　　　土曜日・学校休業日　2,000円/日
 　　　　※土曜日は一時利用のみ</v>
       </c>
-      <c r="L23" t="str">
+      <c r="L24" t="str">
         <v>18:00～18:30</v>
       </c>
-      <c r="M23" t="str">
+      <c r="M24" t="str">
         <v>500円/30分</v>
       </c>
-      <c r="N23" t="str">
+      <c r="N24" t="str">
         <v>8:00～18:00</v>
       </c>
-      <c r="O23" t="str">
+      <c r="O24" t="str">
         <v>8月のみ　　                   　　　　　 　　　　20,000円/月　　　　　　　　　　　　　　　  2,000円/日</v>
       </c>
-      <c r="P23" t="str">
-        <v>―</v>
-      </c>
-      <c r="Q23" t="str">
+      <c r="P24" t="str">
+        <v>—</v>
+      </c>
+      <c r="Q24" t="str">
         <v>800円/年</v>
       </c>
-      <c r="R23" t="str">
+      <c r="R24" t="str">
         <v>要問い合せ</v>
       </c>
-      <c r="S23" t="str">
+      <c r="S24" t="str">
         <v>各自持参</v>
       </c>
-      <c r="T23" t="str">
+      <c r="T24" t="str">
         <v>送迎あり（一宮・仏生山・大野小。利用料に含む。）</v>
       </c>
     </row>
-    <row r="24" xml:space="preserve">
-      <c r="A24" t="str">
-        <v>23</v>
-      </c>
-      <c r="B24" t="str">
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
         <v>34.2798327</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C25" t="str">
         <v>134.0401547</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D25" t="str">
         <v>カナン児童クラブ</v>
       </c>
-      <c r="E24" t="str">
+      <c r="E25" t="str">
         <v>仏生山町甲745番地1</v>
       </c>
-      <c r="F24" t="str">
+      <c r="F25" t="str">
         <v>087-864-8321</v>
       </c>
-      <c r="G24" t="str">
+      <c r="G25" t="str">
         <v>小学1～6年生（仏生山地区優先）</v>
       </c>
-      <c r="H24" t="str">
+      <c r="H25" t="str">
         <v>50人</v>
       </c>
-      <c r="I24" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J24" t="str" xml:space="preserve">
+      <c r="I25" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J25" t="str" xml:space="preserve">
         <v xml:space="preserve">放課後～18:00
 土曜日　8:30～17:30</v>
       </c>
-      <c r="K24" t="str" xml:space="preserve">
+      <c r="K25" t="str" xml:space="preserve">
         <v xml:space="preserve">５,000円/月（教材代含む）
 （2000円/月おやつ代）
 </v>
       </c>
-      <c r="L24" t="str" xml:space="preserve">
+      <c r="L25" t="str" xml:space="preserve">
         <v xml:space="preserve">７:00～8:29、18:01～19:00
 ※土曜日の夕方延長保育はありません。
 ＊長期休暇中も同様です</v>
       </c>
-      <c r="M24" t="str" xml:space="preserve">
+      <c r="M25" t="str" xml:space="preserve">
         <v xml:space="preserve">＜単発利用＞300円/30分
 ＜月登録＞   18:01～19:00   3,000円/月</v>
       </c>
-      <c r="N24" t="str">
+      <c r="N25" t="str">
         <v>8:30～18:00（早朝・延長あり）</v>
       </c>
-      <c r="O24" t="str" xml:space="preserve">
+      <c r="O25" t="str" xml:space="preserve">
         <v xml:space="preserve">＜７月＞　10,000円/月（夏休み利用の場合）
 　　　　  　7,000円/月（夏休み利用しない場合）
 ＜８月＞　15,000円/月</v>
       </c>
-      <c r="P24" t="str">
+      <c r="P25" t="str">
         <v xml:space="preserve"> 5,000円/年</v>
       </c>
-      <c r="Q24" t="str">
+      <c r="Q25" t="str">
         <v>500円/年</v>
       </c>
-      <c r="R24" t="str">
+      <c r="R25" t="str">
         <v>利用料に含む</v>
       </c>
-      <c r="S24" t="str">
+      <c r="S25" t="str">
         <v>各自持参</v>
       </c>
-      <c r="T24" t="str">
+      <c r="T25" t="str">
         <v>兄弟姉妹割引あり</v>
       </c>
     </row>
-    <row r="25" xml:space="preserve">
-      <c r="A25" t="str">
-        <v>24</v>
-      </c>
-      <c r="B25" t="str">
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
         <v>34.2798327</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C26" t="str">
         <v>134.0401547</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D26" t="str">
         <v>カナンそごう児童クラブ</v>
       </c>
-      <c r="E25" t="str">
+      <c r="E26" t="str">
         <v>十川西町546番地1</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F26" t="str">
         <v>087-848-4501</v>
       </c>
-      <c r="G25" t="str">
+      <c r="G26" t="str">
         <v>小学1～6年生（卒園児・低学年優先）</v>
       </c>
-      <c r="H25" t="str">
+      <c r="H26" t="str">
         <v>25人</v>
       </c>
-      <c r="I25" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J25" t="str" xml:space="preserve">
+      <c r="I26" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J26" t="str" xml:space="preserve">
         <v xml:space="preserve">放課後～18:00
 土曜日　8:30～17:30</v>
       </c>
-      <c r="K25" t="str" xml:space="preserve">
+      <c r="K26" t="str" xml:space="preserve">
         <v xml:space="preserve">月～金曜日　7,000円/月
                   （教材代含む）
 月～土曜日　9,000円/月
                   （教材代含む）
 土曜の単発利用　800円/１回</v>
       </c>
-      <c r="L25" t="str" xml:space="preserve">
+      <c r="L26" t="str" xml:space="preserve">
         <v xml:space="preserve">７:30～8:29、18:01～19:00
 ※土曜日の夕方延長保育はありません。</v>
       </c>
-      <c r="M25" t="str" xml:space="preserve">
+      <c r="M26" t="str" xml:space="preserve">
         <v xml:space="preserve">＜非登録＞300円/30分
 ＜登録＞　7:30～8:29　春・冬休み 1,000円
 　　　　 　　 　　　　    夏休み    　4,000円
 18:01～19:00   3,000円/月</v>
       </c>
-      <c r="N25" t="str">
+      <c r="N26" t="str">
         <v>8:30～18:00</v>
       </c>
-      <c r="O25" t="str" xml:space="preserve">
+      <c r="O26" t="str" xml:space="preserve">
         <v xml:space="preserve">＜7月＞10,000円/月（夏休み利用の場合）
 　　　　 7,000円/月（夏休み利用しない場合）
 ＜8月＞15,000円/月（夏休み利用の場合）
 　　　　 2,500円/月（夏休み利用しない場合）</v>
       </c>
-      <c r="P25" t="str" xml:space="preserve">
+      <c r="P26" t="str" xml:space="preserve">
         <v xml:space="preserve"> 5,000円/年
 （10月以降の途中入会 2,500円）</v>
       </c>
-      <c r="Q25" t="str">
+      <c r="Q26" t="str">
         <v>500円/年</v>
       </c>
-      <c r="R25" t="str">
+      <c r="R26" t="str">
         <v>利用料に含む</v>
       </c>
-      <c r="S25" t="str">
+      <c r="S26" t="str">
         <v>各自持参</v>
       </c>
-      <c r="T25" t="str" xml:space="preserve">
+      <c r="T26" t="str" xml:space="preserve">
         <v xml:space="preserve">兄弟姉妹割引あり
 （２人目以降利用料2,500円引き）</v>
-      </c>
-    </row>
-    <row r="26" xml:space="preserve">
-      <c r="A26" t="str">
-        <v>25</v>
-      </c>
-      <c r="B26" t="str">
-        <v>34.300412</v>
-      </c>
-      <c r="C26" t="str">
-        <v>134.1136093</v>
-      </c>
-      <c r="D26" t="str">
-        <v>西光寺保育所</v>
-      </c>
-      <c r="E26" t="str">
-        <v>前田西町167番地1</v>
-      </c>
-      <c r="F26" t="str">
-        <v>087-847-6237</v>
-      </c>
-      <c r="G26" t="str">
-        <v>小学1～６年生（１～３年生優先）</v>
-      </c>
-      <c r="H26" t="str">
-        <v>40人</v>
-      </c>
-      <c r="I26" t="str" xml:space="preserve">
-        <v xml:space="preserve">月～金曜日
-土曜日は要相談</v>
-      </c>
-      <c r="J26" t="str" xml:space="preserve">
-        <v xml:space="preserve">放課後～18:00（延長保育あり）
-土曜日　8:00～16:30</v>
-      </c>
-      <c r="K26" t="str" xml:space="preserve">
-        <v xml:space="preserve">300円/日
-（3時間）</v>
-      </c>
-      <c r="L26" t="str">
-        <v>月～金　7:00～8:00、18:00～19:00                             　土曜日　7:30～8:00                                                               ※土曜日の夕方延長保育はありません。</v>
-      </c>
-      <c r="M26" t="str">
-        <v>100円／30分</v>
-      </c>
-      <c r="N26" t="str">
-        <v>8:00～18:00（延長保育あり）</v>
-      </c>
-      <c r="O26" t="str" xml:space="preserve">
-        <v xml:space="preserve">800円／日
-（10時間を超える場合100円／30分）</v>
-      </c>
-      <c r="P26" t="str" xml:space="preserve">
-        <v xml:space="preserve">3,000円
-（兄弟姉妹2人目以降1,000円）</v>
-      </c>
-      <c r="Q26" t="str">
-        <v>―</v>
-      </c>
-      <c r="R26" t="str">
-        <v>50円/日</v>
-      </c>
-      <c r="S26" t="str">
-        <v>250円/日</v>
-      </c>
-      <c r="T26" t="str">
-        <v/>
       </c>
     </row>
     <row r="27" xml:space="preserve">
@@ -2264,281 +2232,658 @@
         <v>26</v>
       </c>
       <c r="B27" t="str">
+        <v>34.300412</v>
+      </c>
+      <c r="C27" t="str">
+        <v>134.1136093</v>
+      </c>
+      <c r="D27" t="str">
+        <v>西光寺保育所</v>
+      </c>
+      <c r="E27" t="str">
+        <v>前田西町167番地1</v>
+      </c>
+      <c r="F27" t="str">
+        <v>087-847-6237</v>
+      </c>
+      <c r="G27" t="str">
+        <v>小学1～６年生（１～３年生優先）</v>
+      </c>
+      <c r="H27" t="str">
+        <v>40人</v>
+      </c>
+      <c r="I27" t="str" xml:space="preserve">
+        <v xml:space="preserve">月～金曜日
+土曜日は要相談</v>
+      </c>
+      <c r="J27" t="str" xml:space="preserve">
+        <v xml:space="preserve">放課後～18:00（延長保育あり）
+土曜日　8:00～16:30</v>
+      </c>
+      <c r="K27" t="str" xml:space="preserve">
+        <v xml:space="preserve">300円/日
+（3時間）</v>
+      </c>
+      <c r="L27" t="str">
+        <v>月～金　7:00～8:00、18:00～19:00                             　土曜日　7:30～8:00                                                               ※土曜日の夕方延長保育はありません。</v>
+      </c>
+      <c r="M27" t="str">
+        <v>100円／30分</v>
+      </c>
+      <c r="N27" t="str">
+        <v>8:00～18:00（延長保育あり）</v>
+      </c>
+      <c r="O27" t="str" xml:space="preserve">
+        <v xml:space="preserve">800円／日
+（10時間を超える場合100円／30分）</v>
+      </c>
+      <c r="P27" t="str" xml:space="preserve">
+        <v xml:space="preserve">3,000円
+（兄弟姉妹2人目以降1,000円）</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>—</v>
+      </c>
+      <c r="R27" t="str">
+        <v>50円/日</v>
+      </c>
+      <c r="S27" t="str">
+        <v>250円/日</v>
+      </c>
+      <c r="T27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
         <v>34.3314857</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C28" t="str">
         <v>134.0923198</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D28" t="str">
         <v>春日こども園</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E28" t="str">
         <v>春日町1287番地1</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F28" t="str">
         <v>087-843-3689</v>
       </c>
-      <c r="G27" t="str">
+      <c r="G28" t="str">
         <v>小学1～6年生</v>
       </c>
-      <c r="H27" t="str">
+      <c r="H28" t="str">
         <v>50人ぐらい</v>
       </c>
-      <c r="I27" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J27" t="str" xml:space="preserve">
+      <c r="I28" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J28" t="str" xml:space="preserve">
         <v xml:space="preserve">放課後～17:30
 土曜日　8:30～17:00</v>
       </c>
-      <c r="K27" t="str" xml:space="preserve">
+      <c r="K28" t="str" xml:space="preserve">
         <v xml:space="preserve">5,000円/月（8月を除く）
 諸費（教材代）2,000円/月</v>
       </c>
-      <c r="L27" t="str">
+      <c r="L28" t="str">
         <v>月～金　7:00～8:30、17:30～19:00  　                      土曜日　7:00～8:30                                                               ※土曜日の夕方延長保育はありません。</v>
       </c>
-      <c r="M27" t="str" xml:space="preserve">
+      <c r="M28" t="str" xml:space="preserve">
         <v xml:space="preserve">＜登録＞ 
 ７:00～7:30 3,000円/月  17:31～18:00 2,000円/月
 ７:31～8:00 2,000円/月  18:01～18:30 2,000円/月+400円/回
 8:01～8:30 1,000円/月  18:31～19:00 2,000円/月 +900円/回</v>
       </c>
-      <c r="N27" t="str" xml:space="preserve">
+      <c r="N28" t="str" xml:space="preserve">
         <v xml:space="preserve">8:30～17:30
 （延長は平常時と同じ）</v>
       </c>
-      <c r="O27" t="str" xml:space="preserve">
+      <c r="O28" t="str" xml:space="preserve">
         <v xml:space="preserve">100円/時間
 諸費（教材代）2,000円/月</v>
       </c>
-      <c r="P27" t="str" xml:space="preserve">
+      <c r="P28" t="str" xml:space="preserve">
         <v xml:space="preserve">5,000円/年
 （保険料800円を含む）</v>
       </c>
-      <c r="Q27" t="str">
-        <v>―</v>
-      </c>
-      <c r="R27" t="str">
+      <c r="Q28" t="str">
+        <v>—</v>
+      </c>
+      <c r="R28" t="str">
         <v>利用料に含む</v>
       </c>
-      <c r="S27" t="str">
+      <c r="S28" t="str">
         <v>各自持参</v>
       </c>
-      <c r="T27" t="str">
+      <c r="T28" t="str">
         <v/>
       </c>
     </row>
-    <row r="28" xml:space="preserve">
-      <c r="A28" t="str">
-        <v>27</v>
-      </c>
-      <c r="B28" t="str">
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
         <v>34.3510446</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C29" t="str">
         <v>134.0867238</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D29" t="str">
         <v>スマはぴキッズ学童クラブ</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E29" t="str">
         <v>屋島西町2484番地11</v>
       </c>
-      <c r="F28" t="str">
+      <c r="F29" t="str">
         <v>087-843-0188</v>
       </c>
-      <c r="G28" t="str">
+      <c r="G29" t="str">
         <v>小学１～６年生</v>
       </c>
-      <c r="H28" t="str">
+      <c r="H29" t="str">
         <v>39人</v>
       </c>
-      <c r="I28" t="str" xml:space="preserve">
+      <c r="I29" t="str" xml:space="preserve">
         <v xml:space="preserve">月～土曜日
 土曜日については施設の指定する日のみ</v>
       </c>
-      <c r="J28" t="str" xml:space="preserve">
+      <c r="J29" t="str" xml:space="preserve">
         <v xml:space="preserve">放課後～18:30
 土曜日 8:30～18:30</v>
       </c>
-      <c r="K28" t="str">
+      <c r="K29" t="str">
         <v>13,000円/月</v>
       </c>
-      <c r="L28" t="str">
+      <c r="L29" t="str">
         <v>8:00～８:30、18:30～19:00</v>
       </c>
-      <c r="M28" t="str">
+      <c r="M29" t="str">
         <v>500円/30分</v>
       </c>
-      <c r="N28" t="str">
+      <c r="N29" t="str">
         <v>8:30～18:30</v>
       </c>
-      <c r="O28" t="str" xml:space="preserve">
+      <c r="O29" t="str" xml:space="preserve">
         <v xml:space="preserve">1、3、4、7、12月　18,000円
 8月　30,000円</v>
       </c>
-      <c r="P28" t="str">
+      <c r="P29" t="str">
         <v>5,000円/年</v>
       </c>
-      <c r="Q28" t="str">
+      <c r="Q29" t="str">
         <v>800円/年</v>
       </c>
-      <c r="R28" t="str">
+      <c r="R29" t="str">
         <v>備考参照</v>
       </c>
-      <c r="S28" t="str">
+      <c r="S29" t="str">
         <v>各自持参</v>
       </c>
-      <c r="T28" t="str" xml:space="preserve">
+      <c r="T29" t="str" xml:space="preserve">
         <v xml:space="preserve">兄弟姉妹割引有（２人目以降利用料、送迎費２割引）
 母子父子家庭は登録料免除
 ☆Ｒ３年度児童募集にあたりキャンペーン実施中☆
 【利用料；平常時7,000円/月（別途おやつ・運営費代1,500円）長期休暇（８月）10,000円（別途おやつ・運営費2,000円）】</v>
       </c>
     </row>
-    <row r="29" xml:space="preserve">
-      <c r="A29" t="str">
-        <v>28</v>
-      </c>
-      <c r="B29" t="str">
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
         <v>34.3033239</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C30" t="str">
         <v>133.9470053</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D30" t="str">
         <v>いずみこども園</v>
       </c>
-      <c r="E29" t="str">
+      <c r="E30" t="str">
         <v>国分寺町国分2408番地</v>
       </c>
-      <c r="F29" t="str">
+      <c r="F30" t="str">
         <v>087-874-0882</v>
       </c>
-      <c r="G29" t="str">
+      <c r="G30" t="str">
         <v>小学1～６年生（１～３年生優先）</v>
       </c>
-      <c r="H29" t="str">
+      <c r="H30" t="str">
         <v>40人</v>
       </c>
-      <c r="I29" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J29" t="str" xml:space="preserve">
+      <c r="I30" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J30" t="str" xml:space="preserve">
         <v xml:space="preserve">放課後～18:00（延長保育有）
 土曜日　8:00～18:00</v>
       </c>
-      <c r="K29" t="str" xml:space="preserve">
+      <c r="K30" t="str" xml:space="preserve">
         <v xml:space="preserve">【定期】　月～金曜日　4,500円/月
 　　　　　　土曜日   　1,000円/半日</v>
       </c>
-      <c r="L29" t="str">
+      <c r="L30" t="str">
         <v>7:30～8:00、18:00～19:00　　　　　　　　　　　　　　　　　※土曜日の夕方延長保育はありません。</v>
       </c>
-      <c r="M29" t="str" xml:space="preserve">
+      <c r="M30" t="str" xml:space="preserve">
         <v xml:space="preserve">　   7：30～8：00　2,000円/月
   18：00～19：00　3,000円/月
 ＜単発＞  20分につき100円</v>
       </c>
-      <c r="N29" t="str" xml:space="preserve">
+      <c r="N30" t="str" xml:space="preserve">
         <v xml:space="preserve">平日土曜共　8:00～18:00
 （朝・夕延長保育有）</v>
       </c>
-      <c r="O29" t="str" xml:space="preserve">
+      <c r="O30" t="str" xml:space="preserve">
         <v xml:space="preserve">月～金曜日　  8,000円/月
 土曜日　1,000円/半日</v>
       </c>
-      <c r="P29" t="str">
+      <c r="P30" t="str">
         <v>上記利用料に含む</v>
       </c>
-      <c r="Q29" t="str">
+      <c r="Q30" t="str">
         <v>上記利用料に含む</v>
       </c>
-      <c r="R29" t="str">
+      <c r="R30" t="str">
         <v>1,500円/月</v>
       </c>
-      <c r="S29" t="str">
+      <c r="S30" t="str">
         <v>350円/日</v>
       </c>
-      <c r="T29" t="str">
+      <c r="T30" t="str">
         <v>保育園行事等の事情で、利用制限をお願いする時があります。</v>
       </c>
     </row>
-    <row r="30" xml:space="preserve">
-      <c r="A30" t="str">
-        <v>29</v>
-      </c>
-      <c r="B30" t="str">
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
         <v>34.333379</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C31" t="str">
         <v>134.0430366</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D31" t="str">
         <v>中野保育所児童クラブ</v>
       </c>
-      <c r="E30" t="str">
+      <c r="E31" t="str">
         <v>中野町２７番地５</v>
       </c>
-      <c r="F30" t="str">
+      <c r="F31" t="str">
         <v>090-7510-0551</v>
       </c>
-      <c r="G30" t="str">
+      <c r="G31" t="str">
         <v>小学1～6年生</v>
       </c>
-      <c r="H30" t="str">
+      <c r="H31" t="str">
         <v>３５人</v>
       </c>
-      <c r="I30" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J30" t="str" xml:space="preserve">
+      <c r="I31" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J31" t="str" xml:space="preserve">
         <v xml:space="preserve">放課後～18:30
 土曜日　8:30～17:00</v>
       </c>
-      <c r="K30" t="str" xml:space="preserve">
+      <c r="K31" t="str" xml:space="preserve">
         <v xml:space="preserve">基本利用料　10,000円/月
 　　土曜日　　8:30～13:00　500円
 　　　　　　　　8:30～17:00　1,000円</v>
       </c>
-      <c r="L30" t="str" xml:space="preserve">
+      <c r="L31" t="str" xml:space="preserve">
         <v xml:space="preserve">7:30～8:00
 8:01～8:30
 18:30～19:00
 19:01～19:30</v>
       </c>
-      <c r="M30" t="str" xml:space="preserve">
+      <c r="M31" t="str" xml:space="preserve">
         <v xml:space="preserve">下記以外　300円/30分
 19:01～19:30　500円</v>
       </c>
-      <c r="N30" t="str">
+      <c r="N31" t="str">
         <v>8:30～18:30</v>
       </c>
-      <c r="O30" t="str" xml:space="preserve">
+      <c r="O31" t="str" xml:space="preserve">
         <v xml:space="preserve">通常利用者　８月のみ15,000円/月
 長期休暇のみ利用者　春、冬休み10,000円/月
 夏休み期間中　20,000円/月</v>
       </c>
-      <c r="P30" t="str">
+      <c r="P31" t="str">
         <v>5,000円/年</v>
       </c>
-      <c r="Q30" t="str">
+      <c r="Q31" t="str">
         <v>登録料に含む</v>
       </c>
-      <c r="R30" t="str">
+      <c r="R31" t="str">
         <v>利用料に含む</v>
       </c>
-      <c r="S30" t="str">
+      <c r="S31" t="str">
         <v>各自持参もしくは注文あり</v>
       </c>
-      <c r="T30" t="str">
+      <c r="T31" t="str">
         <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <v>34.30957784766427</v>
+      </c>
+      <c r="C32" t="str">
+        <v>134.0462155350798</v>
+      </c>
+      <c r="D32" t="str">
+        <v>にこにこ保育教育研究センター 付属学童クラブのびのび</v>
+      </c>
+      <c r="E32" t="str">
+        <v>太田下町2350番地1</v>
+      </c>
+      <c r="F32" t="str">
+        <v>087-802-5360</v>
+      </c>
+      <c r="G32" t="str">
+        <v>小学1～6年生</v>
+      </c>
+      <c r="H32" t="str">
+        <v xml:space="preserve"> ３０人</v>
+      </c>
+      <c r="I32" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J32" t="str">
+        <v>放課後～18:30 土曜日　8:00～18:30</v>
+      </c>
+      <c r="K32" t="str">
+        <v>【定期】月～金　12,000円/月 　　　　月～土　16,000円/月 【不定期】8:00～13:00　1,000円 13:00～18:30　1,200円(おやつ含む)</v>
+      </c>
+      <c r="L32" t="str">
+        <v>7：30～8：00 18：30～19：00</v>
+      </c>
+      <c r="M32" t="str">
+        <v xml:space="preserve">500円/30分 </v>
+      </c>
+      <c r="N32" t="str">
+        <v xml:space="preserve"> 8:00～18:30</v>
+      </c>
+      <c r="O32" t="str">
+        <v>【定期】1,3,4,7,12月 月～金　16,000円/月 月～土　20,000円/月 ８月　月～金　22,000円/月　月～土　26,000円/月 【不定期】8:00～13:00　1,000円/日 13:00～18:30　1,200円/日(おやつ含む)</v>
+      </c>
+      <c r="P32" t="str">
+        <v>新規3,000円/年 継続2,000円/年</v>
+      </c>
+      <c r="Q32" t="str">
+        <v xml:space="preserve"> 800円/年</v>
+      </c>
+      <c r="R32" t="str">
+        <v>月～金　2,000円/月 月～土　2,500円/月</v>
+      </c>
+      <c r="S32" t="str">
+        <v xml:space="preserve">昼食450円/１食 </v>
+      </c>
+      <c r="T32" t="str">
+        <v>FAX：087-802-5315</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <v>34.34328404459286</v>
+      </c>
+      <c r="C33" t="str">
+        <v>134.01707847516133</v>
+      </c>
+      <c r="D33" t="str">
+        <v>放課後児童クラブにじいろキッズ</v>
+      </c>
+      <c r="E33" t="str">
+        <v>郷東町117番地</v>
+      </c>
+      <c r="F33" t="str">
+        <v>087-881-8063</v>
+      </c>
+      <c r="G33" t="str">
+        <v>小学１～６年生</v>
+      </c>
+      <c r="H33" t="str">
+        <v>２５人</v>
+      </c>
+      <c r="I33" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J33" t="str">
+        <v>放課後～18:30 土曜日 8:30～18:30</v>
+      </c>
+      <c r="K33" t="str">
+        <v>基本利用料(月極)　6,000円/月 基本利用料(スポット)　1,500円/日(おやつ 代含む)</v>
+      </c>
+      <c r="L33" t="str">
+        <v>8:00～8:30(8月及び長期休暇のみ) 18:30～19:00</v>
+      </c>
+      <c r="M33" t="str">
+        <v xml:space="preserve">500円/30分 </v>
+      </c>
+      <c r="N33" t="str">
+        <v>8:30～18:30</v>
+      </c>
+      <c r="O33" t="str">
+        <v>基本利用料(月極)　8月のみ9,000円/月 基本利用料(スポット)　2,000円/日(おやつ代含む) 基本利用料(スポット8月のみ)　13,000円/月</v>
+      </c>
+      <c r="P33" t="str">
+        <v>初回5,000円/年 継続費 5,000円/年(月額コース(通常時)のみ年度更新時に徴 収)</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>800円/年</v>
+      </c>
+      <c r="R33" t="str">
+        <v>通常時(月極)1,500円/月(8月のみ2,000円) スポット(8月のみ)2,000円/月</v>
+      </c>
+      <c r="S33" t="str">
+        <v>各自持参又は弁当注文あり</v>
+      </c>
+      <c r="T33" t="str">
+        <v>タクシー送迎料200円～/回(月極利用者無料) ※校区によって変動有、平日限定 兄弟割引：2人目から利用料及びタクシー送迎料2割引 き 市民税非課税世帯のうちひとり親家庭：登録料免除 希望者はサンハート体操教室割引あり</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <v>34.338722183705485</v>
+      </c>
+      <c r="C34" t="str">
+        <v>134.065357129135</v>
+      </c>
+      <c r="D34" t="str">
+        <v>ちゃぷちゃぷ放課後児童クラブ</v>
+      </c>
+      <c r="E34" t="str">
+        <v xml:space="preserve"> 松島町2丁目12番地８号</v>
+      </c>
+      <c r="F34" t="str">
+        <v>087-802-2237</v>
+      </c>
+      <c r="G34" t="str">
+        <v>小学1～６年生</v>
+      </c>
+      <c r="H34" t="str">
+        <v>10人</v>
+      </c>
+      <c r="I34" t="str">
+        <v xml:space="preserve"> 月～土曜日</v>
+      </c>
+      <c r="J34" t="str">
+        <v>放課後～18:30 土曜日　8:30～13:00</v>
+      </c>
+      <c r="K34" t="str">
+        <v>【定期】月～金　15,000円/月 土曜日　8:00～13:00　1,000円 【不定期】　月～金　2,500円/日 土曜日　8:00～13:00　1,500円</v>
+      </c>
+      <c r="L34" t="str">
+        <v>月～金　18:30～19:00 長期休暇及び振替休日　7:30～8:30</v>
+      </c>
+      <c r="M34" t="str">
+        <v>500円/30分</v>
+      </c>
+      <c r="N34" t="str">
+        <v>8:30～18:30</v>
+      </c>
+      <c r="O34" t="str">
+        <v>定期　夏季休暇月～金曜日：7月20,000円,8月25,000円 冬季・春季休暇月～金曜日：15,000円+800円（日額） 不定期　夏季・冬季・春季休暇3,000円（日額） ※定期利用・不定期利用ともに土曜日：8時30分～13時　 2,500円</v>
+      </c>
+      <c r="P34" t="str">
+        <v>5,000円/年 長期休暇のみ3,000円/年</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>—</v>
+      </c>
+      <c r="R34" t="str">
+        <v>利用料に含む</v>
+      </c>
+      <c r="S34" t="str">
+        <v>実費</v>
+      </c>
+      <c r="T34" t="str">
+        <v>送迎代：実費 医療的ケア児加算料金：内容により要相談 キャンセル料：利用日前日19時まで　なし 利用日前日19時～営業開始時間まで　利用料の50％ 営業開始時間以降/連絡なし　利用料の100％ 生活保護世帯は利用料及び延長料免除</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <v>34.31108543801221</v>
+      </c>
+      <c r="C35" t="str">
+        <v>134.05141756886752</v>
+      </c>
+      <c r="D35" t="str">
+        <v>スマはぴキッズ学童クラブふせいしの杜</v>
+      </c>
+      <c r="E35" t="str">
+        <v>高松市伏石町874番地15</v>
+      </c>
+      <c r="F35" t="str">
+        <v>087-843-1488</v>
+      </c>
+      <c r="G35" t="str">
+        <v>小学１～６年生</v>
+      </c>
+      <c r="H35" t="str">
+        <v>39人</v>
+      </c>
+      <c r="I35" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J35" t="str">
+        <v>放課後～18:30 土曜日 8:30～17:30</v>
+      </c>
+      <c r="K35" t="str">
+        <v>基本利用料(定期)　13,000円/月 (1,3,4,7,12月18,000円/月) 基本利用料(スポット)　1,500円/日(長期休 暇,土曜日2,000円)</v>
+      </c>
+      <c r="L35" t="str">
+        <v>8:00～8:30 18:30～19:00</v>
+      </c>
+      <c r="M35" t="str">
+        <v>500円/30分</v>
+      </c>
+      <c r="N35" t="str">
+        <v>8:30～18:30</v>
+      </c>
+      <c r="O35" t="str">
+        <v>基本利用料(定期)　8月のみ30,000円/月 基本利用料(スポット)　2,000円/日</v>
+      </c>
+      <c r="P35" t="str">
+        <v>初回5,000円/年 継続費 5,000円/年</v>
+      </c>
+      <c r="Q35" t="str">
+        <v>800円/年</v>
+      </c>
+      <c r="R35" t="str">
+        <v>【定期】利用料に含む</v>
+      </c>
+      <c r="S35" t="str">
+        <v>各自持参</v>
+      </c>
+      <c r="T35" t="str">
+        <v>一人親家庭は登録料、継続料免除 兄弟利用２人目から利用料、送迎費を 20％免除</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <v>34.28542903678199</v>
+      </c>
+      <c r="C36" t="str">
+        <v>134.00364417997116</v>
+      </c>
+      <c r="D36" t="str">
+        <v>スマはぴキッズ学童クラブえんざの杜</v>
+      </c>
+      <c r="E36" t="str">
+        <v>高松市円座町西村129番16</v>
+      </c>
+      <c r="F36" t="str">
+        <v>087-843-1488</v>
+      </c>
+      <c r="G36" t="str">
+        <v xml:space="preserve"> 小学１～６年生</v>
+      </c>
+      <c r="H36" t="str">
+        <v>17人</v>
+      </c>
+      <c r="I36" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J36" t="str">
+        <v>放課後～18:30 土曜日 8:30～18:30</v>
+      </c>
+      <c r="K36" t="str">
+        <v>基本利用料(定期)　13,000円/月 (1,3,4,7,12月18,000円/月) 基本利用料(スポット)　1,500円/日(長期休 暇,土曜日2,000円)</v>
+      </c>
+      <c r="L36" t="str">
+        <v>8:00～8:30 18:30～19:00</v>
+      </c>
+      <c r="M36" t="str">
+        <v>500円/30分</v>
+      </c>
+      <c r="N36" t="str">
+        <v>8:30～18:30</v>
+      </c>
+      <c r="O36" t="str">
+        <v xml:space="preserve">基本利用料(定期)　8月のみ30,000円/月 基本利用料(スポット)　2,000円/日 </v>
+      </c>
+      <c r="P36" t="str">
+        <v xml:space="preserve">初回5,000円/年 継続費 5,000円/年 </v>
+      </c>
+      <c r="Q36" t="str">
+        <v>800円/年</v>
+      </c>
+      <c r="R36" t="str">
+        <v>【定期】利用料に含む</v>
+      </c>
+      <c r="S36" t="str">
+        <v>各自持参</v>
+      </c>
+      <c r="T36" t="str">
+        <v>一人親家庭は登録料、継続料免除 兄弟利用２人目から利用料、送迎費を 20％免除</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:T30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:T36"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/children_club/data.xlsx
+++ b/data/children_club/data.xlsx
@@ -767,7 +767,7 @@
         <v>小学1～6年生</v>
       </c>
       <c r="H6" t="str">
-        <v>43人</v>
+        <v>41人</v>
       </c>
       <c r="I6" t="str">
         <v>月～土曜日</v>
@@ -825,10 +825,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>34.3334381</v>
+        <v>34.333438100000365</v>
       </c>
       <c r="C7" t="str">
-        <v>134.0463305</v>
+        <v>134.04854653289163</v>
       </c>
       <c r="D7" t="str">
         <v>学童保育ハルクラブ第２教室</v>
@@ -901,10 +901,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>34.3334381</v>
+        <v>34.33359120173105</v>
       </c>
       <c r="C8" t="str">
-        <v>134.0463305</v>
+        <v>134.0474341020386</v>
       </c>
       <c r="D8" t="str">
         <v>学童保育ハルクラブ第３教室</v>
@@ -960,143 +960,70 @@
     </row>
     <row r="9" xml:space="preserve">
       <c r="A9" t="str">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>34.3387365</v>
+        <v>34.3424917</v>
       </c>
       <c r="C9" t="str">
-        <v>134.0515577</v>
+        <v>134.0592149</v>
       </c>
       <c r="D9" t="str">
-        <v>アーキペラゴ放課後児童クラブ</v>
+        <v>ふくふく児童クラブ</v>
       </c>
       <c r="E9" t="str">
-        <v>高松市塩上町一丁目２番７号</v>
+        <v>松福町一丁目12番20号</v>
       </c>
       <c r="F9" t="str">
-        <v>087-813-1001</v>
+        <v>087-802-6336</v>
       </c>
       <c r="G9" t="str">
-        <v>小学1～6年生</v>
+        <v>小学1～6年生（低学年優先）</v>
       </c>
       <c r="H9" t="str">
-        <v>25人</v>
-      </c>
-      <c r="I9" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J9" t="str" xml:space="preserve">
-        <v xml:space="preserve">放課後～18:00
-土曜日　9:00～18:00</v>
-      </c>
-      <c r="K9" t="str" xml:space="preserve">
-        <v xml:space="preserve">【定期】　長期休暇月以外
-　　　　　月～金曜日　　20,000円/月
-　　　　　月～土曜日　　30,000円/月
-【不定期】1,000円（３時間以内）</v>
+        <v>40人</v>
+      </c>
+      <c r="I9" t="str" xml:space="preserve">
+        <v xml:space="preserve">月～土曜日
+土曜日はクラブの指定する日</v>
+      </c>
+      <c r="J9" t="str">
+        <v>放課後～18:00土曜日　9：00～17：00</v>
+      </c>
+      <c r="K9" t="str">
+        <v xml:space="preserve">　　　月～金曜日　　6,000円/月　　　土曜日　450円／日　　</v>
       </c>
       <c r="L9" t="str">
-        <v>平日・土曜日・長期　18:00～１９:00　　　　　　　　　　　　　　土曜日・長期のみ　　８:00～　９:00</v>
+        <v>8:00～9:00、18:00～19:00</v>
       </c>
       <c r="M9" t="str">
-        <v>500円/30分</v>
+        <v>【登録者】 2,500円/月（7：45～）　　　　　2,000円/月（8：00～）　　　　 　1,000円/月（8：30～）　　　　 　1,000円/月（～18：30）　　　　 　2,000円/月（～19：00）　　　　　 　１00円/30分（【非登録者】は別途規定有）</v>
       </c>
       <c r="N9" t="str">
         <v>9:00～18:00</v>
       </c>
       <c r="O9" t="str" xml:space="preserve">
-        <v xml:space="preserve">1、3、4、7、12月　　30,000円/月
-                       ８月　　36,000円/月</v>
-      </c>
-      <c r="P9" t="str" xml:space="preserve">
-        <v xml:space="preserve">【定期】3,000円/年（保険料800円を含む）
-【不定期】3,000円/年（保険料800円が別途必要）</v>
-      </c>
-      <c r="Q9" t="str">
-        <v>ー</v>
-      </c>
-      <c r="R9" t="str" xml:space="preserve">
-        <v xml:space="preserve">【定期】利用料に含む
-【不定期】100円/1日</v>
-      </c>
-      <c r="S9" t="str" xml:space="preserve">
-        <v xml:space="preserve">各自持参、一緒に買いに行く
-（長期休暇中）</v>
-      </c>
-      <c r="T9" t="str" xml:space="preserve">
-        <v xml:space="preserve">一人親家庭割引有り
-（登録料免除、利用料割引）
-兄弟姉妹割引有り
-（２人目以降登録料免除、利用料割引）</v>
-      </c>
-    </row>
-    <row r="10" xml:space="preserve">
-      <c r="A10" t="str">
-        <v>8</v>
-      </c>
-      <c r="B10" t="str">
-        <v>34.3424917</v>
-      </c>
-      <c r="C10" t="str">
-        <v>134.0592149</v>
-      </c>
-      <c r="D10" t="str">
-        <v>ふくふく児童クラブ</v>
-      </c>
-      <c r="E10" t="str">
-        <v>松福町一丁目12番20号</v>
-      </c>
-      <c r="F10" t="str">
-        <v>087-802-6336</v>
-      </c>
-      <c r="G10" t="str">
-        <v>小学1～6年生（低学年優先）</v>
-      </c>
-      <c r="H10" t="str">
-        <v>40人</v>
-      </c>
-      <c r="I10" t="str" xml:space="preserve">
-        <v xml:space="preserve">月～土曜日
-土曜日はクラブの指定する日</v>
-      </c>
-      <c r="J10" t="str">
-        <v>放課後～18:00土曜日　9：00～17：00</v>
-      </c>
-      <c r="K10" t="str">
-        <v xml:space="preserve">　　　月～金曜日　　6,000円/月　　　土曜日　450円／日　　</v>
-      </c>
-      <c r="L10" t="str">
-        <v>8:00～9:00、18:00～19:00</v>
-      </c>
-      <c r="M10" t="str">
-        <v>【登録者】 2,500円/月（7：45～）　　　　　2,000円/月（8：00～）　　　　 　1,000円/月（8：30～）　　　　 　1,000円/月（～18：30）　　　　 　2,000円/月（～19：00）　　　　　 　１00円/30分（【非登録者】は別途規定有）</v>
-      </c>
-      <c r="N10" t="str">
-        <v>9:00～18:00</v>
-      </c>
-      <c r="O10" t="str" xml:space="preserve">
         <v xml:space="preserve">【登録者】（春休み・冬休みは別途規定有）
 　7月　７,000円
 　8月　12,000円
 【非登録者】（春休み・冬休みは別途規定有）
 　夏休み全期間　17,000円</v>
       </c>
-      <c r="P10" t="str" xml:space="preserve">
+      <c r="P9" t="str" xml:space="preserve">
         <v xml:space="preserve">3,000円/年
 （保険料を含む）</v>
       </c>
-      <c r="Q10" t="str">
+      <c r="Q9" t="str">
         <v>ー</v>
       </c>
-      <c r="R10" t="str" xml:space="preserve">
+      <c r="R9" t="str" xml:space="preserve">
         <v xml:space="preserve">１,000円/月
 （長期休暇中・非登録者は別途規定有）</v>
       </c>
-      <c r="S10" t="str">
+      <c r="S9" t="str">
         <v>各自持参</v>
       </c>
-      <c r="T10" t="str" xml:space="preserve">
+      <c r="T9" t="str" xml:space="preserve">
         <v xml:space="preserve">・兄弟姉妹割引あり
 ・学校休校日、警報発令時開室
 ・下校時のお迎え（有料）あり
@@ -1104,140 +1031,205 @@
 　　　　　　　　　</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>34.3387365</v>
+      </c>
+      <c r="C10" t="str">
+        <v>134.0515577</v>
+      </c>
+      <c r="D10" t="str">
+        <v>アーキペラゴ放課後児童クラブ</v>
+      </c>
+      <c r="E10" t="str">
+        <v>高松市塩上町一丁目２番７号</v>
+      </c>
+      <c r="F10" t="str">
+        <v>087-813-1001</v>
+      </c>
+      <c r="G10" t="str">
+        <v>小学1～6年生</v>
+      </c>
+      <c r="H10" t="str">
+        <v>25人</v>
+      </c>
+      <c r="I10" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J10" t="str">
+        <v>放課後～18:00土曜日　9:00～18:00</v>
+      </c>
+      <c r="K10" t="str">
+        <v>【定期】　長期休暇月以外　　　　　月～金曜日　　20,000円/月　　　　　月～土曜日　　30,000円/月【不定期】1,000円（３時間以内）</v>
+      </c>
+      <c r="L10" t="str">
+        <v>平日・土曜日・長期　18:00～１９:00　　　　　　　　　　　　　　土曜日・長期のみ　　８:00～　９:00</v>
+      </c>
+      <c r="M10" t="str">
+        <v>500円/30分</v>
+      </c>
+      <c r="N10" t="str">
+        <v>9:00～18:00</v>
+      </c>
+      <c r="O10" t="str">
+        <v>1、3、4、7、12月　　30,000円/月                       ８月　　36,000円/月</v>
+      </c>
+      <c r="P10" t="str">
+        <v>【定期】3,000円/年（保険料800円を含む）【不定期】3,000円/年（保険料800円が別途必要）</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>ー</v>
+      </c>
+      <c r="R10" t="str">
+        <v>【定期】利用料に含む【不定期】100円/1日</v>
+      </c>
+      <c r="S10" t="str">
+        <v>各自持参、一緒に買いに行く（長期休暇中）</v>
+      </c>
+      <c r="T10" t="str">
+        <v>一人親家庭割引有り（登録料免除、利用料割引）兄弟姉妹割引有り（２人目以降登録料免除、利用料割引）</v>
+      </c>
+    </row>
     <row r="11" xml:space="preserve">
       <c r="A11" t="str">
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>34.3341005</v>
+        <v>34.3136152</v>
       </c>
       <c r="C11" t="str">
-        <v>134.0714996</v>
+        <v>134.0557809</v>
       </c>
       <c r="D11" t="str">
-        <v>学童保育アローナック</v>
+        <v>アフタースクール香川</v>
       </c>
       <c r="E11" t="str">
-        <v>木太町2344番地1</v>
+        <v>伏石町2078番地10</v>
       </c>
       <c r="F11" t="str">
-        <v>087-813-2278</v>
+        <v>087-864-6812/090-6604-8772</v>
       </c>
       <c r="G11" t="str">
         <v>小学1～6年生</v>
       </c>
       <c r="H11" t="str">
-        <v>40人</v>
+        <v>85人</v>
       </c>
       <c r="I11" t="str">
         <v>月～土曜日</v>
       </c>
       <c r="J11" t="str" xml:space="preserve">
         <v xml:space="preserve">放課後～19:00
-土曜日　8:00～19:00</v>
+土曜日　7:30～19:00</v>
       </c>
       <c r="K11" t="str" xml:space="preserve">
-        <v xml:space="preserve">月～金曜日(週５日利用)   15,000円/月　　　　　    　　　　　　　　月～金曜日(週４日利用)   14,000円/月　　　　　　    　　　　　　　土曜日　午前８時～午後１時までの５時間　750円　　　　　　　　　
-　　　　午後１時～午後７時までの５時間　750円　
-　午前８時～午後７時までの１１時間　１５００円　</v>
-      </c>
-      <c r="L11" t="str">
-        <v>19:00～22:00</v>
-      </c>
-      <c r="M11" t="str">
-        <v>500円/時間</v>
-      </c>
-      <c r="N11" t="str">
-        <v>8:00～19:00</v>
-      </c>
-      <c r="O11" t="str">
-        <v>3、8、12月　25,000円/月</v>
-      </c>
-      <c r="P11" t="str">
-        <v>年会費　5,000円/年</v>
-      </c>
-      <c r="Q11" t="str">
-        <v>800円/年</v>
-      </c>
-      <c r="R11" t="str">
-        <v>利用料に含む</v>
-      </c>
-      <c r="S11" t="str">
-        <v>各自持参</v>
-      </c>
-      <c r="T11" t="str" xml:space="preserve">
-        <v xml:space="preserve">兄弟姉妹割引あり
-（２人目以降年会費免除、利用料割引）</v>
-      </c>
-    </row>
-    <row r="12" xml:space="preserve">
-      <c r="A12" t="str">
-        <v>11</v>
-      </c>
-      <c r="B12" t="str">
-        <v>34.3136152</v>
-      </c>
-      <c r="C12" t="str">
-        <v>134.0557809</v>
-      </c>
-      <c r="D12" t="str">
-        <v>アフタースクール香川</v>
-      </c>
-      <c r="E12" t="str">
-        <v>伏石町2078番地10</v>
-      </c>
-      <c r="F12" t="str">
-        <v>087-864-6812/090-6604-8772</v>
-      </c>
-      <c r="G12" t="str">
-        <v>小学1～6年生</v>
-      </c>
-      <c r="H12" t="str">
-        <v>85人</v>
-      </c>
-      <c r="I12" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J12" t="str" xml:space="preserve">
-        <v xml:space="preserve">放課後～19:00
-土曜日　7:30～19:00</v>
-      </c>
-      <c r="K12" t="str" xml:space="preserve">
         <v xml:space="preserve">【定期】　月～金曜日　10,000円/月
 【不定期】　300円/時間（1,500円/日）
 　　　　　1,000円/月
      （全く利用しない月のみ継続維持費として）　　　　　　　　　　　　　　　　　　　　　　　　　　【土曜日限定】　4,000円/月</v>
       </c>
-      <c r="L12" t="str">
+      <c r="L11" t="str">
         <v>月～金曜日（19:00～19:30）</v>
       </c>
-      <c r="M12" t="str" xml:space="preserve">
+      <c r="M11" t="str" xml:space="preserve">
         <v xml:space="preserve">19:00を越える場合
 500円/30分</v>
       </c>
-      <c r="N12" t="str">
+      <c r="N11" t="str">
         <v>7:30～19:00（延長保育あり）</v>
       </c>
-      <c r="O12" t="str" xml:space="preserve">
+      <c r="O11" t="str" xml:space="preserve">
         <v xml:space="preserve">夏休み期間のみ
 【定期】平常時と同額に　200円×利用日数を加算
 【不定期】平常時と同額に　100円×利用日数を加算</v>
       </c>
-      <c r="P12" t="str">
+      <c r="P11" t="str">
         <v>1世帯4,200円/年</v>
       </c>
+      <c r="Q11" t="str">
+        <v>800円/年</v>
+      </c>
+      <c r="R11" t="str">
+        <v>100円/日</v>
+      </c>
+      <c r="S11" t="str">
+        <v>各自持参</v>
+      </c>
+      <c r="T11" t="str" xml:space="preserve">
+        <v xml:space="preserve">兄弟姉妹割引・ひとり親割引あり
+下校時のお迎え（有料）あり</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>34.3107719</v>
+      </c>
+      <c r="C12" t="str">
+        <v>134.0606605</v>
+      </c>
+      <c r="D12" t="str">
+        <v>こぶし中央保育園（のびっこ教室）</v>
+      </c>
+      <c r="E12" t="str">
+        <v>松縄町1142番地7</v>
+      </c>
+      <c r="F12" t="str">
+        <v>087-866-7169</v>
+      </c>
+      <c r="G12" t="str">
+        <v>小学1～6年生</v>
+      </c>
+      <c r="H12" t="str" xml:space="preserve">
+        <v xml:space="preserve">40人
+（長期休暇60人）</v>
+      </c>
+      <c r="I12" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J12" t="str" xml:space="preserve">
+        <v xml:space="preserve">放課後～18:00
+土曜日　8:30～18:00</v>
+      </c>
+      <c r="K12" t="str" xml:space="preserve">
+        <v xml:space="preserve">月～金曜日　5,000円/月　
+　   土曜日　     50円/時間　　
+（月登録以外は100円/時間）</v>
+      </c>
+      <c r="L12" t="str">
+        <v>７:00～8:30、18:00～19:00</v>
+      </c>
+      <c r="M12" t="str" xml:space="preserve">
+        <v xml:space="preserve">100円/30分
+200円/時間</v>
+      </c>
+      <c r="N12" t="str">
+        <v>8:30～18:00</v>
+      </c>
+      <c r="O12" t="str" xml:space="preserve">
+        <v xml:space="preserve">＜8月利用＞  月～金曜日         7,500円/月
+＜７、8月の長期のみの利用＞  9,500円</v>
+      </c>
+      <c r="P12" t="str" xml:space="preserve">
+        <v xml:space="preserve">500円
+（初回利用時・保険料含む）</v>
+      </c>
       <c r="Q12" t="str">
-        <v>800円/年</v>
+        <v>—</v>
       </c>
       <c r="R12" t="str">
         <v>100円/日</v>
       </c>
       <c r="S12" t="str">
-        <v>各自持参</v>
-      </c>
-      <c r="T12" t="str" xml:space="preserve">
-        <v xml:space="preserve">兄弟姉妹割引・ひとり親割引あり
-下校時のお迎え（有料）あり</v>
+        <v>各自弁当持参</v>
+      </c>
+      <c r="T12" t="str">
+        <v>長期休暇のみの方は、ご相談ください。</v>
       </c>
     </row>
     <row r="13" xml:space="preserve">
@@ -1245,118 +1237,49 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <v>34.3107719</v>
+        <v>34.3390441</v>
       </c>
       <c r="C13" t="str">
-        <v>134.0606605</v>
+        <v>134.0777782</v>
       </c>
       <c r="D13" t="str">
-        <v>こぶし中央保育園（のびっこ教室）</v>
+        <v>アーク放課後スクール</v>
       </c>
       <c r="E13" t="str">
-        <v>松縄町1142番地7</v>
+        <v>木太町２６７０番地４</v>
       </c>
       <c r="F13" t="str">
-        <v>087-866-7169</v>
+        <v>087-837-9051</v>
       </c>
       <c r="G13" t="str">
         <v>小学1～6年生</v>
       </c>
-      <c r="H13" t="str" xml:space="preserve">
-        <v xml:space="preserve">40人
-（長期休暇60人）</v>
+      <c r="H13" t="str">
+        <v>４０人</v>
       </c>
       <c r="I13" t="str">
         <v>月～土曜日</v>
       </c>
       <c r="J13" t="str" xml:space="preserve">
-        <v xml:space="preserve">放課後～18:00
-土曜日　8:30～18:00</v>
-      </c>
-      <c r="K13" t="str" xml:space="preserve">
-        <v xml:space="preserve">月～金曜日　5,000円/月　
-　   土曜日　     50円/時間　　
-（月登録以外は100円/時間）</v>
-      </c>
-      <c r="L13" t="str">
-        <v>７:00～8:30、18:00～19:00</v>
-      </c>
-      <c r="M13" t="str" xml:space="preserve">
-        <v xml:space="preserve">100円/30分
-200円/時間</v>
-      </c>
-      <c r="N13" t="str">
-        <v>8:30～18:00</v>
-      </c>
-      <c r="O13" t="str" xml:space="preserve">
-        <v xml:space="preserve">＜8月利用＞  月～金曜日         7,500円/月
-＜７、8月の長期のみの利用＞  9,500円</v>
-      </c>
-      <c r="P13" t="str" xml:space="preserve">
-        <v xml:space="preserve">500円
-（初回利用時・保険料含む）</v>
-      </c>
-      <c r="Q13" t="str">
-        <v>—</v>
-      </c>
-      <c r="R13" t="str">
-        <v>100円/日</v>
-      </c>
-      <c r="S13" t="str">
-        <v>各自弁当持参</v>
-      </c>
-      <c r="T13" t="str">
-        <v>長期休暇のみの方は、ご相談ください。</v>
-      </c>
-    </row>
-    <row r="14" xml:space="preserve">
-      <c r="A14" t="str">
-        <v>13</v>
-      </c>
-      <c r="B14" t="str">
-        <v>34.3390441</v>
-      </c>
-      <c r="C14" t="str">
-        <v>134.0777782</v>
-      </c>
-      <c r="D14" t="str">
-        <v>アーク放課後スクール</v>
-      </c>
-      <c r="E14" t="str">
-        <v>木太町２６７０番地４</v>
-      </c>
-      <c r="F14" t="str">
-        <v>087-837-9051</v>
-      </c>
-      <c r="G14" t="str">
-        <v>小学1～6年生</v>
-      </c>
-      <c r="H14" t="str">
-        <v>４０人</v>
-      </c>
-      <c r="I14" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J14" t="str" xml:space="preserve">
         <v xml:space="preserve">放課後～19:00
 土曜日　8:00～18:00</v>
       </c>
-      <c r="K14" t="str" xml:space="preserve">
+      <c r="K13" t="str" xml:space="preserve">
         <v xml:space="preserve">【定期】　　月～金曜日　13,000円/月
 　　　　　　土曜日　1,500円/日
 【不定期】　月～金曜日　1,300円/日
 　　　　　　土曜日　2,000円/日</v>
       </c>
-      <c r="L14" t="str">
+      <c r="L13" t="str">
         <v>7:30～8:00、19:00～21:00</v>
       </c>
-      <c r="M14" t="str">
+      <c r="M13" t="str">
         <v>500円/30分</v>
       </c>
-      <c r="N14" t="str">
+      <c r="N13" t="str">
         <v>8:00～18:00</v>
       </c>
-      <c r="O14" t="str" xml:space="preserve">
+      <c r="O13" t="str" xml:space="preserve">
         <v xml:space="preserve">1.3.4.7.12月【定期】月～金曜日(8時間)18,000円/月 例:8:00～15:00など
 月～金曜日(8時間以上)21,000円/月 土曜日2,000円/日
 【不定期】月～土曜日　2,500円/日
@@ -1365,41 +1288,120 @@
 土曜日2,000円/日
 【不定期】月～土曜日2,500円/日</v>
       </c>
-      <c r="P14" t="str">
+      <c r="P13" t="str">
         <v>【定期】3,000円/年　【不定期】1,500円/年</v>
       </c>
-      <c r="Q14" t="str">
+      <c r="Q13" t="str">
         <v>500円/年</v>
       </c>
-      <c r="R14" t="str">
+      <c r="R13" t="str">
         <v>利用料に含む</v>
       </c>
-      <c r="S14" t="str">
+      <c r="S13" t="str">
         <v>弁当各自持参</v>
       </c>
-      <c r="T14" t="str" xml:space="preserve">
+      <c r="T13" t="str" xml:space="preserve">
         <v xml:space="preserve">兄弟割引あり
 警報発令時開園
 緊急下校へのお迎え対応あり
 長期休暇のみの方はご相談ください。</v>
       </c>
     </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <v>34.3027567</v>
+      </c>
+      <c r="C14" t="str">
+        <v>134.0484587</v>
+      </c>
+      <c r="D14" t="str" xml:space="preserve">
+        <v xml:space="preserve">学童クラブ　すり～ふれんず
+第１教室</v>
+      </c>
+      <c r="E14" t="str">
+        <v>太田下町1676番地３</v>
+      </c>
+      <c r="F14" t="str">
+        <v>087-864-3103/087-864-3137</v>
+      </c>
+      <c r="G14" t="str">
+        <v>小学1～6年生</v>
+      </c>
+      <c r="H14" t="str">
+        <v>30人</v>
+      </c>
+      <c r="I14" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J14" t="str" xml:space="preserve">
+        <v xml:space="preserve">放課後～19:00
+土曜日  7:30～18:00</v>
+      </c>
+      <c r="K14" t="str" xml:space="preserve">
+        <v xml:space="preserve">【定期】   月～金曜日              15,000円/月
+   　　　　土曜日
+　　　　　7：30～13：00　　 600円
+　　　　　13：00～18：00　　900円　   　 
+【不定期】月～金曜日        　　1,200円/日
+　　　　　土曜日
+　　　　 　7：30～13：00          800円
+　　　　　13：00～18：00     1,200円　　　　</v>
+      </c>
+      <c r="L14" t="str" xml:space="preserve">
+        <v xml:space="preserve">　        　　7:00～7:30
+月～金　19:00～20:00
+土曜日　18:00～19:30</v>
+      </c>
+      <c r="M14" t="str">
+        <v>500円/時間</v>
+      </c>
+      <c r="N14" t="str">
+        <v>7:30～19:00</v>
+      </c>
+      <c r="O14" t="str" xml:space="preserve">
+        <v xml:space="preserve">【定期】 　１、３、４、７、１２月　
+           　　　　                    20,000円/月
+ 　　　　  ８月 　                  25,000円/月
+【不定期】 8:0０～13:00           800円/日
+　           13:00～19:00        1,200円/日</v>
+      </c>
+      <c r="P14" t="str">
+        <v>（新規）5,000円　（継続）4,500円</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>800円/年</v>
+      </c>
+      <c r="R14" t="str">
+        <v>利用料に含む</v>
+      </c>
+      <c r="S14" t="str">
+        <v>各自持参</v>
+      </c>
+      <c r="T14" t="str" xml:space="preserve">
+        <v xml:space="preserve">兄弟姉妹割引あり（入会金１名分のみ）
+兄弟姉妹割引あり（保育料）
+母子家庭又は父子家庭（登録料免除）</v>
+      </c>
+    </row>
     <row r="15" xml:space="preserve">
       <c r="A15" t="str">
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <v>34.3027567</v>
+        <v>34.3028976</v>
       </c>
       <c r="C15" t="str">
-        <v>134.0484587</v>
+        <v>134.0504708</v>
       </c>
       <c r="D15" t="str" xml:space="preserve">
         <v xml:space="preserve">学童クラブ　すり～ふれんず
-第１教室</v>
+第２教室</v>
       </c>
       <c r="E15" t="str">
-        <v>太田下町1676番地３</v>
+        <v>太田下町1676番地1</v>
       </c>
       <c r="F15" t="str">
         <v>087-864-3103/087-864-3137</v>
@@ -1408,7 +1410,7 @@
         <v>小学1～6年生</v>
       </c>
       <c r="H15" t="str">
-        <v>30人</v>
+        <v>40人</v>
       </c>
       <c r="I15" t="str">
         <v>月～土曜日</v>
@@ -1436,88 +1438,9 @@
         <v>500円/時間</v>
       </c>
       <c r="N15" t="str">
-        <v>7:30～19:00</v>
+        <v>7:30～19:00（延長保育あり）</v>
       </c>
       <c r="O15" t="str" xml:space="preserve">
-        <v xml:space="preserve">【定期】 　１、３、４、７、１２月　
-           　　　　                    20,000円/月
- 　　　　  ８月 　                  25,000円/月
-【不定期】 8:0０～13:00           800円/日
-　           13:00～19:00        1,200円/日</v>
-      </c>
-      <c r="P15" t="str">
-        <v>（新規）5,000円　（継続）4,500円</v>
-      </c>
-      <c r="Q15" t="str">
-        <v>800円/年</v>
-      </c>
-      <c r="R15" t="str">
-        <v>利用料に含む</v>
-      </c>
-      <c r="S15" t="str">
-        <v>各自持参</v>
-      </c>
-      <c r="T15" t="str" xml:space="preserve">
-        <v xml:space="preserve">兄弟姉妹割引あり（入会金１名分のみ）
-兄弟姉妹割引あり（保育料）
-母子家庭又は父子家庭（登録料免除）</v>
-      </c>
-    </row>
-    <row r="16" xml:space="preserve">
-      <c r="A16" t="str">
-        <v>15</v>
-      </c>
-      <c r="B16" t="str">
-        <v>34.3028976</v>
-      </c>
-      <c r="C16" t="str">
-        <v>134.0504708</v>
-      </c>
-      <c r="D16" t="str" xml:space="preserve">
-        <v xml:space="preserve">学童クラブ　すり～ふれんず
-第２教室</v>
-      </c>
-      <c r="E16" t="str">
-        <v>太田下町1676番地1</v>
-      </c>
-      <c r="F16" t="str">
-        <v>087-864-3103/087-864-3137</v>
-      </c>
-      <c r="G16" t="str">
-        <v>小学1～6年生</v>
-      </c>
-      <c r="H16" t="str">
-        <v>40人</v>
-      </c>
-      <c r="I16" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J16" t="str" xml:space="preserve">
-        <v xml:space="preserve">放課後～19:00
-土曜日  7:30～18:00</v>
-      </c>
-      <c r="K16" t="str" xml:space="preserve">
-        <v xml:space="preserve">【定期】   月～金曜日              15,000円/月
-   　　　　土曜日
-　　　　　7：30～13：00　　 600円
-　　　　　13：00～18：00　　900円　   　 
-【不定期】月～金曜日        　　1,200円/日
-　　　　　土曜日
-　　　　 　7：30～13：00          800円
-　　　　　13：00～18：00     1,200円　　　　</v>
-      </c>
-      <c r="L16" t="str" xml:space="preserve">
-        <v xml:space="preserve">　        　　7:00～7:30
-月～金　19:00～20:00
-土曜日　18:00～19:30</v>
-      </c>
-      <c r="M16" t="str">
-        <v>500円/時間</v>
-      </c>
-      <c r="N16" t="str">
-        <v>7:30～19:00（延長保育あり）</v>
-      </c>
-      <c r="O16" t="str" xml:space="preserve">
         <v xml:space="preserve">【定期】 　
 １、３、４、７、１２月　        　　　　                  20,000円/月
 ８月 　                  
@@ -1528,24 +1451,90 @@
 13:00～19:00        
 1,200円/日</v>
       </c>
-      <c r="P16" t="str">
+      <c r="P15" t="str">
         <v>（新規）5,000円　（継続）4,500円</v>
       </c>
-      <c r="Q16" t="str">
+      <c r="Q15" t="str">
         <v>800円/年</v>
       </c>
-      <c r="R16" t="str">
+      <c r="R15" t="str">
         <v>利用料に含む</v>
       </c>
-      <c r="S16" t="str">
+      <c r="S15" t="str">
         <v>各自持参</v>
       </c>
-      <c r="T16" t="str" xml:space="preserve">
+      <c r="T15" t="str" xml:space="preserve">
         <v xml:space="preserve">兄弟姉妹割引あり（入会金1名分のみ）
 兄弟姉妹割引あり（保育料）
 母子家庭又は父子家庭（登録料免除）</v>
       </c>
     </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>34.2915888</v>
+      </c>
+      <c r="C16" t="str">
+        <v>134.0437701</v>
+      </c>
+      <c r="D16" t="str">
+        <v>学童保育なかよしクラブ（第１）</v>
+      </c>
+      <c r="E16" t="str">
+        <v>多肥上町1番地3</v>
+      </c>
+      <c r="F16" t="str">
+        <v>087-880-1588/080-5664-7790</v>
+      </c>
+      <c r="G16" t="str">
+        <v>小学1～6年生</v>
+      </c>
+      <c r="H16" t="str">
+        <v>70人（長期休暇中のみの利用を含む）</v>
+      </c>
+      <c r="I16" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J16" t="str" xml:space="preserve">
+        <v xml:space="preserve">放課後～19:30
+土曜日　7:30～19:30</v>
+      </c>
+      <c r="K16" t="str">
+        <v>10,000円/月 10,000円未満の場合は以下の日割り  平日　700円/日 土曜日　1,200円/日</v>
+      </c>
+      <c r="L16" t="str" xml:space="preserve">
+        <v xml:space="preserve">７:00～7:30、19:30～20:00
+（保護者の送迎の場合のみ）</v>
+      </c>
+      <c r="M16" t="str">
+        <v>７:00～7:30　300円 19:30～20:00　300円/30分</v>
+      </c>
+      <c r="N16" t="str">
+        <v>7:30～19:30</v>
+      </c>
+      <c r="O16" t="str">
+        <v>1,200円/日</v>
+      </c>
+      <c r="P16" t="str" xml:space="preserve">
+        <v xml:space="preserve">【新規】　　3,000円/年
+【継続】　　2,000円/年</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>800円/年</v>
+      </c>
+      <c r="R16" t="str">
+        <v>100円/日</v>
+      </c>
+      <c r="S16" t="str">
+        <v>各自持参</v>
+      </c>
+      <c r="T16" t="str" xml:space="preserve">
+        <v xml:space="preserve">兄弟姉妹割引有、お迎え（有料）
+その他諸費あり</v>
+      </c>
+    </row>
     <row r="17" xml:space="preserve">
       <c r="A17" t="str">
         <v>16</v>
@@ -1554,13 +1543,13 @@
         <v>34.2915888</v>
       </c>
       <c r="C17" t="str">
-        <v>134.0437701</v>
+        <v>134.0415814</v>
       </c>
       <c r="D17" t="str">
-        <v>学童保育なかよしクラブ（第１）</v>
+        <v>学童保育なかよしクラブ（第２）</v>
       </c>
       <c r="E17" t="str">
-        <v>多肥上町1番地3</v>
+        <v>多肥上町310番地8</v>
       </c>
       <c r="F17" t="str">
         <v>087-880-1588/080-5664-7790</v>
@@ -1569,7 +1558,7 @@
         <v>小学1～6年生</v>
       </c>
       <c r="H17" t="str">
-        <v>70人（長期休暇中のみの利用を含む）</v>
+        <v>22人（長期休暇中のみの利用を含む）</v>
       </c>
       <c r="I17" t="str">
         <v>月～土曜日</v>
@@ -1617,334 +1606,336 @@
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <v>34.2915888</v>
+        <v>34.2784339</v>
       </c>
       <c r="C18" t="str">
-        <v>134.0415814</v>
+        <v>134.0542943</v>
       </c>
       <c r="D18" t="str">
-        <v>学童保育なかよしクラブ（第２）</v>
+        <v>学童保育Ciao（ちゃお）</v>
       </c>
       <c r="E18" t="str">
-        <v>多肥上町310番地8</v>
+        <v>多肥上町2042番地17</v>
       </c>
       <c r="F18" t="str">
-        <v>087-880-1588/080-5664-7790</v>
+        <v>087-816-1313</v>
       </c>
       <c r="G18" t="str">
         <v>小学1～6年生</v>
       </c>
       <c r="H18" t="str">
-        <v>22人（長期休暇中のみの利用を含む）</v>
+        <v>45人</v>
       </c>
       <c r="I18" t="str">
         <v>月～土曜日</v>
       </c>
-      <c r="J18" t="str" xml:space="preserve">
-        <v xml:space="preserve">放課後～19:30
-土曜日　7:30～19:30</v>
-      </c>
-      <c r="K18" t="str">
-        <v>10,000円/月 10,000円未満の場合は以下の日割り  平日　700円/日 土曜日　1,200円/日</v>
+      <c r="J18" t="str">
+        <v>放課後～19:00                                                 土曜日　8:00～18:00</v>
+      </c>
+      <c r="K18" t="str" xml:space="preserve">
+        <v xml:space="preserve">【定期】　月～金曜日　15,000円/月(軽食付）　　　　
+【土曜日】定期　   2,000円/日（デザート付）</v>
       </c>
       <c r="L18" t="str" xml:space="preserve">
-        <v xml:space="preserve">７:00～7:30、19:30～20:00
-（保護者の送迎の場合のみ）</v>
+        <v xml:space="preserve">7:30～8:00、19:00～20:00
+(土曜日の延長保育はありません）</v>
       </c>
       <c r="M18" t="str">
-        <v>７:00～7:30　300円 19:30～20:00　300円/30分</v>
-      </c>
-      <c r="N18" t="str">
-        <v>7:30～19:30</v>
+        <v>500円/30分</v>
+      </c>
+      <c r="N18" t="str" xml:space="preserve">
+        <v xml:space="preserve">7:30～18:30
+（延長は18時30分以降のみ）</v>
       </c>
       <c r="O18" t="str">
-        <v>1,200円/日</v>
+        <v>【3,4,7,12,1月】 15,000円/月に700円×午前利用日数を加算 【8月】 30,000円/月</v>
       </c>
       <c r="P18" t="str" xml:space="preserve">
-        <v xml:space="preserve">【新規】　　3,000円/年
-【継続】　　2,000円/年</v>
+        <v xml:space="preserve">6,000円/年
+（継続5,000円/年）</v>
       </c>
       <c r="Q18" t="str">
         <v>800円/年</v>
       </c>
-      <c r="R18" t="str">
-        <v>100円/日</v>
-      </c>
-      <c r="S18" t="str">
-        <v>各自持参</v>
-      </c>
-      <c r="T18" t="str" xml:space="preserve">
-        <v xml:space="preserve">兄弟姉妹割引有、お迎え（有料）
-その他諸費あり</v>
-      </c>
-    </row>
-    <row r="19" xml:space="preserve">
-      <c r="A19" t="str">
-        <v>18</v>
-      </c>
-      <c r="B19" t="str">
-        <v>34.2784339</v>
-      </c>
-      <c r="C19" t="str">
-        <v>134.0542943</v>
-      </c>
-      <c r="D19" t="str">
-        <v>学童保育Ciao（ちゃお）</v>
-      </c>
-      <c r="E19" t="str">
-        <v>多肥上町2042番地17</v>
-      </c>
-      <c r="F19" t="str">
-        <v>087-816-1313</v>
-      </c>
-      <c r="G19" t="str">
-        <v>小学1～6年生</v>
-      </c>
-      <c r="H19" t="str">
-        <v>45人</v>
-      </c>
-      <c r="I19" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J19" t="str">
-        <v>放課後～19:00                                                 土曜日　8:00～18:00</v>
-      </c>
-      <c r="K19" t="str" xml:space="preserve">
-        <v xml:space="preserve">【定期】　月～金曜日　15,000円/月(軽食付）　　　　
-【土曜日】定期　   2,000円/日（デザート付）</v>
-      </c>
-      <c r="L19" t="str" xml:space="preserve">
-        <v xml:space="preserve">7:30～8:00、19:00～20:00
-(土曜日の延長保育はありません）</v>
-      </c>
-      <c r="M19" t="str">
-        <v>500円/30分</v>
-      </c>
-      <c r="N19" t="str" xml:space="preserve">
-        <v xml:space="preserve">7:30～18:30
-（延長は18時30分以降のみ）</v>
-      </c>
-      <c r="O19" t="str">
-        <v>【3,4,7,12,1月】 15,000円/月に700円×午前利用日数を加算 【8月】 30,000円/月</v>
-      </c>
-      <c r="P19" t="str" xml:space="preserve">
-        <v xml:space="preserve">6,000円/年
-（継続5,000円/年）</v>
-      </c>
-      <c r="Q19" t="str">
-        <v>800円/年</v>
-      </c>
-      <c r="R19" t="str" xml:space="preserve">
+      <c r="R18" t="str" xml:space="preserve">
         <v xml:space="preserve">おやつに軽食を提供（利用料に含む）
 *長期休暇中のおやつはデザートに変更（利用料に含む）　　　</v>
       </c>
-      <c r="S19" t="str">
+      <c r="S18" t="str">
         <v>各自持参・弁当注文可能</v>
       </c>
-      <c r="T19" t="str" xml:space="preserve">
+      <c r="T18" t="str" xml:space="preserve">
         <v xml:space="preserve">・兄弟割引、ひとり親登録免除制度
 ・自宅周辺お見送り可
 ・学校休校日、警報発令時保育実施
 ・塾等お見送り要相談（近隣のみ）</v>
       </c>
     </row>
-    <row r="20" xml:space="preserve">
-      <c r="A20" t="str">
-        <v>19</v>
-      </c>
-      <c r="B20" t="str">
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
         <v>34.2952324</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C19" t="str">
         <v>134.0435703</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D19" t="str">
         <v>学童クラブおおぞら</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E19" t="str">
         <v>多肥下町1538番地5</v>
       </c>
-      <c r="F20" t="str">
+      <c r="F19" t="str">
         <v>087-887-9366</v>
       </c>
-      <c r="G20" t="str">
+      <c r="G19" t="str">
         <v>小学1～6年生</v>
       </c>
-      <c r="H20" t="str">
+      <c r="H19" t="str">
         <v>40人</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I19" t="str">
         <v>月～土曜日</v>
       </c>
-      <c r="J20" t="str" xml:space="preserve">
+      <c r="J19" t="str" xml:space="preserve">
         <v xml:space="preserve">放課後～19:00
 土曜日　7:30～19:00</v>
       </c>
-      <c r="K20" t="str">
+      <c r="K19" t="str">
         <v xml:space="preserve">　　月～金　週３日10,000円/月 　　　　　　週５日13,000円/月</v>
       </c>
-      <c r="L20" t="str">
+      <c r="L19" t="str">
         <v>19:00～20:00</v>
       </c>
-      <c r="M20" t="str">
+      <c r="M19" t="str">
         <v>500円/30分</v>
       </c>
-      <c r="N20" t="str">
+      <c r="N19" t="str">
         <v>7:30～19:00</v>
       </c>
-      <c r="O20" t="str">
+      <c r="O19" t="str">
         <v>月は平常時利用料の倍額</v>
       </c>
-      <c r="P20" t="str">
+      <c r="P19" t="str">
         <v>無料</v>
       </c>
-      <c r="Q20" t="str">
+      <c r="Q19" t="str">
         <v>無料（施設独自の団体保険加入あり）</v>
       </c>
-      <c r="R20" t="str">
+      <c r="R19" t="str">
         <v>上記利用料に含む</v>
       </c>
-      <c r="S20" t="str">
+      <c r="S19" t="str">
         <v>各自持参</v>
       </c>
-      <c r="T20" t="str" xml:space="preserve">
+      <c r="T19" t="str" xml:space="preserve">
         <v xml:space="preserve">無償送迎あり（学校→クラブ）
 有償送迎あり（クラブ→塾等）
 警報発令時開園
 緊急下校へのお迎え対応あり</v>
       </c>
     </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <v>34.3014682</v>
+      </c>
+      <c r="C20" t="str">
+        <v>134.0465886</v>
+      </c>
+      <c r="D20" t="str">
+        <v>アルペジオ放課後児童クラブ</v>
+      </c>
+      <c r="E20" t="str">
+        <v>多肥上町1262番地1</v>
+      </c>
+      <c r="F20" t="str">
+        <v xml:space="preserve"> 087-813-7133</v>
+      </c>
+      <c r="G20" t="str">
+        <v>小学1～6年生（1～3年生優先）</v>
+      </c>
+      <c r="H20" t="str">
+        <v>25人</v>
+      </c>
+      <c r="I20" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J20" t="str">
+        <v>放課後～18:30 土曜日　8:30～17:30</v>
+      </c>
+      <c r="K20" t="str">
+        <v>【定期】月～金13,000円/月(おやつ代込) 【不定期】月～金1,300円/日(おやつ代込) 【土曜日】8:30～13:30　1,000円 13:30～17:30　1,000円（おやつ代込）</v>
+      </c>
+      <c r="L20" t="str">
+        <v>平日18:30～19:00 学校休業日7:30～8:00 18:30～19:00 土曜日17:30～18:30</v>
+      </c>
+      <c r="M20" t="str">
+        <v>500円/30分</v>
+      </c>
+      <c r="N20" t="str" xml:space="preserve">
+        <v xml:space="preserve">8:30～18:00
+土曜日　8:30～18:00（延長なし）</v>
+      </c>
+      <c r="O20" t="str">
+        <v>【定期】８月以外500円加算/日(おやつ代 込) 8月　20,000円/月(おやつ代込) 【不定期】  2,000円／日(おやつ代込)</v>
+      </c>
+      <c r="P20" t="str">
+        <v>3,000円/年</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>800円/年</v>
+      </c>
+      <c r="R20" t="str">
+        <v>利用料に含む</v>
+      </c>
+      <c r="S20" t="str">
+        <v>400円/1食</v>
+      </c>
+      <c r="T20" t="str" xml:space="preserve">
+        <v xml:space="preserve">下校時お迎え　（有料）
+長期休暇園外活動費用　実費徴収</v>
+      </c>
+    </row>
     <row r="21" xml:space="preserve">
       <c r="A21" t="str">
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <v>34.3014682</v>
+        <v>34.26986288222126</v>
       </c>
       <c r="C21" t="str">
-        <v>134.0465886</v>
+        <v>134.0069673930353</v>
       </c>
       <c r="D21" t="str">
-        <v>アルペジオ放課後児童クラブ</v>
+        <v>和光アフタースクール</v>
       </c>
       <c r="E21" t="str">
-        <v>多肥上町1262番地1</v>
+        <v>川部町1576番地4</v>
       </c>
       <c r="F21" t="str">
-        <v xml:space="preserve"> 087-813-7133</v>
+        <v>087-814-3001</v>
       </c>
       <c r="G21" t="str">
-        <v>小学1～6年生（1～3年生優先）</v>
+        <v>小学1～6年生（1～４年生を優先）</v>
       </c>
       <c r="H21" t="str">
-        <v>25人</v>
+        <v>45人</v>
       </c>
       <c r="I21" t="str">
         <v>月～土曜日</v>
       </c>
       <c r="J21" t="str">
-        <v>放課後～18:30 土曜日　8:30～17:30</v>
-      </c>
-      <c r="K21" t="str">
-        <v>【定期】月～金13,000円/月(おやつ代込) 【不定期】月～金1,300円/日(おやつ代込) 【土曜日】8:30～13:30　1,000円 13:30～17:30　1,000円（おやつ代込）</v>
-      </c>
-      <c r="L21" t="str">
-        <v>平日18:30～19:00 学校休業日7:30～8:00 18:30～19:00 土曜日17:30～18:30</v>
-      </c>
-      <c r="M21" t="str">
-        <v>500円/30分</v>
-      </c>
-      <c r="N21" t="str" xml:space="preserve">
-        <v xml:space="preserve">8:30～18:00
-土曜日　8:30～18:00（延長なし）</v>
-      </c>
-      <c r="O21" t="str">
-        <v>【定期】８月以外500円加算/日(おやつ代 込) 8月　20,000円/月(おやつ代込) 【不定期】  2,000円／日(おやつ代込)</v>
-      </c>
-      <c r="P21" t="str">
-        <v>3,000円/年</v>
-      </c>
-      <c r="Q21" t="str">
-        <v>800円/年</v>
-      </c>
-      <c r="R21" t="str">
-        <v>利用料に含む</v>
-      </c>
-      <c r="S21" t="str">
-        <v>400円/1食</v>
-      </c>
-      <c r="T21" t="str" xml:space="preserve">
-        <v xml:space="preserve">下校時お迎え　（有料）
-長期休暇園外活動費用　実費徴収</v>
-      </c>
-    </row>
-    <row r="22" xml:space="preserve">
-      <c r="A22" t="str">
-        <v>21</v>
-      </c>
-      <c r="B22" t="str">
-        <v>34.26986288222126</v>
-      </c>
-      <c r="C22" t="str">
-        <v>134.0069673930353</v>
-      </c>
-      <c r="D22" t="str">
-        <v>和光アフタースクール</v>
-      </c>
-      <c r="E22" t="str">
-        <v>川部町1576番地4</v>
-      </c>
-      <c r="F22" t="str">
-        <v>087-814-3001</v>
-      </c>
-      <c r="G22" t="str">
-        <v>小学1～6年生（1～４年生を優先）</v>
-      </c>
-      <c r="H22" t="str">
-        <v>45人</v>
-      </c>
-      <c r="I22" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J22" t="str">
         <v>放課後～18:30土曜日　8:00～17:00</v>
       </c>
-      <c r="K22" t="str" xml:space="preserve">
+      <c r="K21" t="str" xml:space="preserve">
         <v xml:space="preserve">【定期】　　月～金　8,000円/月
 　　　　　　土曜日　   650円/日
 【不定期】　月～金　   500円/日
 　　　　　　土曜日　   750円/日
 　　　　学校休業日  　 750円/日</v>
       </c>
-      <c r="L22" t="str">
+      <c r="L21" t="str">
         <v>午前延長　 7:30～8:00 午後延長 18:30～19:00 午後延長(土曜日)　17:00～17:30</v>
       </c>
-      <c r="M22" t="str">
+      <c r="M21" t="str">
         <v>500円／30分</v>
       </c>
-      <c r="N22" t="str">
+      <c r="N21" t="str">
         <v>8:00～18:30</v>
       </c>
-      <c r="O22" t="str" xml:space="preserve">
+      <c r="O21" t="str" xml:space="preserve">
         <v xml:space="preserve">【定期】８月　月～金　13,000円
 その他　　250円加算／日
 【不定期】学校休業日　750円/日</v>
       </c>
-      <c r="P22" t="str" xml:space="preserve">
+      <c r="P21" t="str" xml:space="preserve">
         <v xml:space="preserve">【定期】年会費　3,500円/年
 【不定期】年会費　1,500円/年</v>
       </c>
+      <c r="Q21" t="str">
+        <v>800円/年</v>
+      </c>
+      <c r="R21" t="str">
+        <v>定期2,000円/月 不定期100円/日</v>
+      </c>
+      <c r="S21" t="str">
+        <v>各自持参</v>
+      </c>
+      <c r="T21" t="str">
+        <v>兄弟姉妹割引あり（２人目以降基本利用料割引）</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22" t="str">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <v>34.2801871</v>
+      </c>
+      <c r="C22" t="str">
+        <v>134.0214403</v>
+      </c>
+      <c r="D22" t="str">
+        <v>らく楽児童クラブ</v>
+      </c>
+      <c r="E22" t="str">
+        <v>寺井町1195番地１</v>
+      </c>
+      <c r="F22" t="str">
+        <v>087-885-6000</v>
+      </c>
+      <c r="G22" t="str">
+        <v>小学1～6年生</v>
+      </c>
+      <c r="H22" t="str">
+        <v>40人</v>
+      </c>
+      <c r="I22" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J22" t="str" xml:space="preserve">
+        <v xml:space="preserve">放課後～18:30
+土曜日　7:30～18:30</v>
+      </c>
+      <c r="K22" t="str" xml:space="preserve">
+        <v xml:space="preserve">月～金曜日　10,000円/月
+月～土曜日　13,500円/月
+  </v>
+      </c>
+      <c r="L22" t="str">
+        <v>18:30～19:00</v>
+      </c>
+      <c r="M22" t="str">
+        <v>500円/30分</v>
+      </c>
+      <c r="N22" t="str">
+        <v>7:30～18:30</v>
+      </c>
+      <c r="O22" t="str" xml:space="preserve">
+        <v xml:space="preserve">＜8月のみ＞
+月～金曜日　15,000円
+月～土曜日　18,500円</v>
+      </c>
+      <c r="P22" t="str">
+        <v>5,000円/年</v>
+      </c>
       <c r="Q22" t="str">
         <v>800円/年</v>
       </c>
       <c r="R22" t="str">
-        <v>定期2,000円/月 不定期100円/日</v>
+        <v>100円/日</v>
       </c>
       <c r="S22" t="str">
         <v>各自持参</v>
       </c>
-      <c r="T22" t="str">
-        <v>兄弟姉妹割引あり（２人目以降基本利用料割引）</v>
+      <c r="T22" t="str" xml:space="preserve">
+        <v xml:space="preserve">兄弟姉妹割引・ひとり親割引あり
+送迎有（一宮・円座・大野小）</v>
       </c>
     </row>
     <row r="23" xml:space="preserve">
@@ -1952,133 +1943,135 @@
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <v>34.2801871</v>
+        <v>34.283981</v>
       </c>
       <c r="C23" t="str">
-        <v>134.0214403</v>
+        <v>134.0322904</v>
       </c>
       <c r="D23" t="str">
-        <v>らく楽児童クラブ</v>
+        <v>アフタースクール空港通り</v>
       </c>
       <c r="E23" t="str">
-        <v>寺井町1195番地１</v>
+        <v>一宮町97番地7</v>
       </c>
       <c r="F23" t="str">
-        <v>087-885-6000</v>
+        <v>070-4512-4218</v>
       </c>
       <c r="G23" t="str">
         <v>小学1～6年生</v>
       </c>
       <c r="H23" t="str">
-        <v>40人</v>
+        <v>15人</v>
       </c>
       <c r="I23" t="str">
         <v>月～土曜日</v>
       </c>
       <c r="J23" t="str" xml:space="preserve">
-        <v xml:space="preserve">放課後～18:30
-土曜日　7:30～18:30</v>
-      </c>
-      <c r="K23" t="str" xml:space="preserve">
-        <v xml:space="preserve">月～金曜日　10,000円/月
-月～土曜日　13,500円/月
-  </v>
-      </c>
-      <c r="L23" t="str">
-        <v>18:30～19:00</v>
-      </c>
-      <c r="M23" t="str">
-        <v>500円/30分</v>
-      </c>
-      <c r="N23" t="str">
-        <v>7:30～18:30</v>
-      </c>
-      <c r="O23" t="str" xml:space="preserve">
-        <v xml:space="preserve">＜8月のみ＞
-月～金曜日　15,000円
-月～土曜日　18,500円</v>
-      </c>
-      <c r="P23" t="str">
-        <v>5,000円/年</v>
-      </c>
-      <c r="Q23" t="str">
-        <v>800円/年</v>
-      </c>
-      <c r="R23" t="str">
-        <v>100円/日</v>
-      </c>
-      <c r="S23" t="str">
-        <v>各自持参</v>
-      </c>
-      <c r="T23" t="str" xml:space="preserve">
-        <v xml:space="preserve">兄弟姉妹割引・ひとり親割引あり
-送迎有（一宮・円座・大野小）</v>
-      </c>
-    </row>
-    <row r="24" xml:space="preserve">
-      <c r="A24" t="str">
-        <v>23</v>
-      </c>
-      <c r="B24" t="str">
-        <v>34.283981</v>
-      </c>
-      <c r="C24" t="str">
-        <v>134.0322904</v>
-      </c>
-      <c r="D24" t="str">
-        <v>アフタースクール空港通り</v>
-      </c>
-      <c r="E24" t="str">
-        <v>一宮町97番地7</v>
-      </c>
-      <c r="F24" t="str">
-        <v>070-4512-4218</v>
-      </c>
-      <c r="G24" t="str">
-        <v>小学1～6年生</v>
-      </c>
-      <c r="H24" t="str">
-        <v>15人</v>
-      </c>
-      <c r="I24" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J24" t="str" xml:space="preserve">
         <v xml:space="preserve">放課後～18:00
 土曜日・学校休業日　8:00～18:00</v>
       </c>
-      <c r="K24" t="str" xml:space="preserve">
+      <c r="K23" t="str" xml:space="preserve">
         <v xml:space="preserve">【定期】月～金曜日　12,000円/月
 【一時】月～金曜日　  1,000円/日
 　　　　土曜日・学校休業日　2,000円/日
 　　　　※土曜日は一時利用のみ</v>
       </c>
-      <c r="L24" t="str">
+      <c r="L23" t="str">
         <v>18:00～18:30</v>
       </c>
-      <c r="M24" t="str">
+      <c r="M23" t="str">
         <v>500円/30分</v>
       </c>
+      <c r="N23" t="str">
+        <v>8:00～18:00</v>
+      </c>
+      <c r="O23" t="str">
+        <v>8月のみ　　                   　　　　　 　　　　20,000円/月　　　　　　　　　　　　　　　  2,000円/日</v>
+      </c>
+      <c r="P23" t="str">
+        <v>—</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>800円/年</v>
+      </c>
+      <c r="R23" t="str">
+        <v>要問い合せ</v>
+      </c>
+      <c r="S23" t="str">
+        <v>各自持参</v>
+      </c>
+      <c r="T23" t="str">
+        <v>送迎あり（一宮・仏生山・大野小。利用料に含む。）</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <v>34.2798327</v>
+      </c>
+      <c r="C24" t="str">
+        <v>134.0401547</v>
+      </c>
+      <c r="D24" t="str">
+        <v>カナン児童クラブ</v>
+      </c>
+      <c r="E24" t="str">
+        <v>仏生山町甲745番地1</v>
+      </c>
+      <c r="F24" t="str">
+        <v>087-864-8321</v>
+      </c>
+      <c r="G24" t="str">
+        <v>小学1～6年生（仏生山地区優先）</v>
+      </c>
+      <c r="H24" t="str">
+        <v>50人</v>
+      </c>
+      <c r="I24" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J24" t="str" xml:space="preserve">
+        <v xml:space="preserve">放課後～18:00
+土曜日　8:30～17:30</v>
+      </c>
+      <c r="K24" t="str" xml:space="preserve">
+        <v xml:space="preserve">５,000円/月（教材代含む）
+（2000円/月おやつ代）
+</v>
+      </c>
+      <c r="L24" t="str" xml:space="preserve">
+        <v xml:space="preserve">７:00～8:29、18:01～19:00
+※土曜日の夕方延長保育はありません。
+＊長期休暇中も同様です</v>
+      </c>
+      <c r="M24" t="str" xml:space="preserve">
+        <v xml:space="preserve">＜単発利用＞300円/30分
+＜月登録＞   18:01～19:00   3,000円/月</v>
+      </c>
       <c r="N24" t="str">
-        <v>8:00～18:00</v>
-      </c>
-      <c r="O24" t="str">
-        <v>8月のみ　　                   　　　　　 　　　　20,000円/月　　　　　　　　　　　　　　　  2,000円/日</v>
+        <v>8:30～18:00（早朝・延長あり）</v>
+      </c>
+      <c r="O24" t="str" xml:space="preserve">
+        <v xml:space="preserve">＜７月＞　10,000円/月（夏休み利用の場合）
+　　　　  　7,000円/月（夏休み利用しない場合）
+＜８月＞　15,000円/月</v>
       </c>
       <c r="P24" t="str">
-        <v>—</v>
+        <v xml:space="preserve"> 5,000円/年</v>
       </c>
       <c r="Q24" t="str">
-        <v>800円/年</v>
+        <v>500円/年</v>
       </c>
       <c r="R24" t="str">
-        <v>要問い合せ</v>
+        <v>利用料に含む</v>
       </c>
       <c r="S24" t="str">
         <v>各自持参</v>
       </c>
       <c r="T24" t="str">
-        <v>送迎あり（一宮・仏生山・大野小。利用料に含む。）</v>
+        <v>兄弟姉妹割引あり</v>
       </c>
     </row>
     <row r="25" xml:space="preserve">
@@ -2092,19 +2085,19 @@
         <v>134.0401547</v>
       </c>
       <c r="D25" t="str">
-        <v>カナン児童クラブ</v>
+        <v>カナンそごう児童クラブ</v>
       </c>
       <c r="E25" t="str">
-        <v>仏生山町甲745番地1</v>
+        <v>十川西町546番地1</v>
       </c>
       <c r="F25" t="str">
-        <v>087-864-8321</v>
+        <v>087-848-4501</v>
       </c>
       <c r="G25" t="str">
-        <v>小学1～6年生（仏生山地区優先）</v>
+        <v>小学1～6年生（卒園児・低学年優先）</v>
       </c>
       <c r="H25" t="str">
-        <v>50人</v>
+        <v>25人</v>
       </c>
       <c r="I25" t="str">
         <v>月～土曜日</v>
@@ -2114,117 +2107,114 @@
 土曜日　8:30～17:30</v>
       </c>
       <c r="K25" t="str" xml:space="preserve">
-        <v xml:space="preserve">５,000円/月（教材代含む）
-（2000円/月おやつ代）
-</v>
-      </c>
-      <c r="L25" t="str" xml:space="preserve">
-        <v xml:space="preserve">７:00～8:29、18:01～19:00
-※土曜日の夕方延長保育はありません。
-＊長期休暇中も同様です</v>
-      </c>
-      <c r="M25" t="str" xml:space="preserve">
-        <v xml:space="preserve">＜単発利用＞300円/30分
-＜月登録＞   18:01～19:00   3,000円/月</v>
-      </c>
-      <c r="N25" t="str">
-        <v>8:30～18:00（早朝・延長あり）</v>
-      </c>
-      <c r="O25" t="str" xml:space="preserve">
-        <v xml:space="preserve">＜７月＞　10,000円/月（夏休み利用の場合）
-　　　　  　7,000円/月（夏休み利用しない場合）
-＜８月＞　15,000円/月</v>
-      </c>
-      <c r="P25" t="str">
-        <v xml:space="preserve"> 5,000円/年</v>
-      </c>
-      <c r="Q25" t="str">
-        <v>500円/年</v>
-      </c>
-      <c r="R25" t="str">
-        <v>利用料に含む</v>
-      </c>
-      <c r="S25" t="str">
-        <v>各自持参</v>
-      </c>
-      <c r="T25" t="str">
-        <v>兄弟姉妹割引あり</v>
-      </c>
-    </row>
-    <row r="26" xml:space="preserve">
-      <c r="A26" t="str">
-        <v>25</v>
-      </c>
-      <c r="B26" t="str">
-        <v>34.2798327</v>
-      </c>
-      <c r="C26" t="str">
-        <v>134.0401547</v>
-      </c>
-      <c r="D26" t="str">
-        <v>カナンそごう児童クラブ</v>
-      </c>
-      <c r="E26" t="str">
-        <v>十川西町546番地1</v>
-      </c>
-      <c r="F26" t="str">
-        <v>087-848-4501</v>
-      </c>
-      <c r="G26" t="str">
-        <v>小学1～6年生（卒園児・低学年優先）</v>
-      </c>
-      <c r="H26" t="str">
-        <v>25人</v>
-      </c>
-      <c r="I26" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J26" t="str" xml:space="preserve">
-        <v xml:space="preserve">放課後～18:00
-土曜日　8:30～17:30</v>
-      </c>
-      <c r="K26" t="str" xml:space="preserve">
         <v xml:space="preserve">月～金曜日　7,000円/月
                   （教材代含む）
 月～土曜日　9,000円/月
                   （教材代含む）
 土曜の単発利用　800円/１回</v>
       </c>
-      <c r="L26" t="str" xml:space="preserve">
+      <c r="L25" t="str" xml:space="preserve">
         <v xml:space="preserve">７:30～8:29、18:01～19:00
 ※土曜日の夕方延長保育はありません。</v>
       </c>
-      <c r="M26" t="str" xml:space="preserve">
+      <c r="M25" t="str" xml:space="preserve">
         <v xml:space="preserve">＜非登録＞300円/30分
 ＜登録＞　7:30～8:29　春・冬休み 1,000円
 　　　　 　　 　　　　    夏休み    　4,000円
 18:01～19:00   3,000円/月</v>
       </c>
-      <c r="N26" t="str">
+      <c r="N25" t="str">
         <v>8:30～18:00</v>
       </c>
-      <c r="O26" t="str" xml:space="preserve">
+      <c r="O25" t="str" xml:space="preserve">
         <v xml:space="preserve">＜7月＞10,000円/月（夏休み利用の場合）
 　　　　 7,000円/月（夏休み利用しない場合）
 ＜8月＞15,000円/月（夏休み利用の場合）
 　　　　 2,500円/月（夏休み利用しない場合）</v>
       </c>
-      <c r="P26" t="str" xml:space="preserve">
+      <c r="P25" t="str" xml:space="preserve">
         <v xml:space="preserve"> 5,000円/年
 （10月以降の途中入会 2,500円）</v>
       </c>
-      <c r="Q26" t="str">
+      <c r="Q25" t="str">
         <v>500円/年</v>
       </c>
-      <c r="R26" t="str">
+      <c r="R25" t="str">
         <v>利用料に含む</v>
       </c>
-      <c r="S26" t="str">
+      <c r="S25" t="str">
         <v>各自持参</v>
       </c>
-      <c r="T26" t="str" xml:space="preserve">
+      <c r="T25" t="str" xml:space="preserve">
         <v xml:space="preserve">兄弟姉妹割引あり
 （２人目以降利用料2,500円引き）</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <v>34.300412</v>
+      </c>
+      <c r="C26" t="str">
+        <v>134.1136093</v>
+      </c>
+      <c r="D26" t="str">
+        <v>西光寺保育所(学童保育ぱんだ組）</v>
+      </c>
+      <c r="E26" t="str">
+        <v>前田西町167番地1</v>
+      </c>
+      <c r="F26" t="str">
+        <v>087-847-6237</v>
+      </c>
+      <c r="G26" t="str">
+        <v>小学1～６年生（１～３年生優先）</v>
+      </c>
+      <c r="H26" t="str">
+        <v>40人</v>
+      </c>
+      <c r="I26" t="str" xml:space="preserve">
+        <v xml:space="preserve">月～金曜日
+土曜日は要相談</v>
+      </c>
+      <c r="J26" t="str" xml:space="preserve">
+        <v xml:space="preserve">放課後～18:00（延長保育あり）
+土曜日　8:00～16:30</v>
+      </c>
+      <c r="K26" t="str" xml:space="preserve">
+        <v xml:space="preserve">300円/日
+（3時間）</v>
+      </c>
+      <c r="L26" t="str">
+        <v>月～金　7:00～8:00、18:00～19:00                             　土曜日　7:30～8:00                                                               ※土曜日の夕方延長保育はありません。</v>
+      </c>
+      <c r="M26" t="str">
+        <v>100円／30分</v>
+      </c>
+      <c r="N26" t="str">
+        <v>8:00～18:00（延長保育あり）</v>
+      </c>
+      <c r="O26" t="str" xml:space="preserve">
+        <v xml:space="preserve">800円／日
+（10時間を超える場合100円／30分）</v>
+      </c>
+      <c r="P26" t="str" xml:space="preserve">
+        <v xml:space="preserve">3,000円
+（兄弟姉妹2人目以降1,000円）</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>—</v>
+      </c>
+      <c r="R26" t="str">
+        <v>50円/日</v>
+      </c>
+      <c r="S26" t="str">
+        <v>250円/日</v>
+      </c>
+      <c r="T26" t="str">
+        <v/>
       </c>
     </row>
     <row r="27" xml:space="preserve">
@@ -2232,343 +2222,338 @@
         <v>26</v>
       </c>
       <c r="B27" t="str">
-        <v>34.300412</v>
+        <v>34.3314857</v>
       </c>
       <c r="C27" t="str">
-        <v>134.1136093</v>
+        <v>134.0923198</v>
       </c>
       <c r="D27" t="str">
-        <v>西光寺保育所</v>
+        <v>春日こども園</v>
       </c>
       <c r="E27" t="str">
-        <v>前田西町167番地1</v>
+        <v>春日町1287番地1</v>
       </c>
       <c r="F27" t="str">
-        <v>087-847-6237</v>
+        <v>087-843-3689</v>
       </c>
       <c r="G27" t="str">
-        <v>小学1～６年生（１～３年生優先）</v>
+        <v>小学1～6年生</v>
       </c>
       <c r="H27" t="str">
-        <v>40人</v>
-      </c>
-      <c r="I27" t="str" xml:space="preserve">
-        <v xml:space="preserve">月～金曜日
-土曜日は要相談</v>
+        <v>50人ぐらい</v>
+      </c>
+      <c r="I27" t="str">
+        <v>月～土曜日</v>
       </c>
       <c r="J27" t="str" xml:space="preserve">
-        <v xml:space="preserve">放課後～18:00（延長保育あり）
-土曜日　8:00～16:30</v>
-      </c>
-      <c r="K27" t="str" xml:space="preserve">
-        <v xml:space="preserve">300円/日
-（3時間）</v>
-      </c>
-      <c r="L27" t="str">
-        <v>月～金　7:00～8:00、18:00～19:00                             　土曜日　7:30～8:00                                                               ※土曜日の夕方延長保育はありません。</v>
-      </c>
-      <c r="M27" t="str">
-        <v>100円／30分</v>
-      </c>
-      <c r="N27" t="str">
-        <v>8:00～18:00（延長保育あり）</v>
-      </c>
-      <c r="O27" t="str" xml:space="preserve">
-        <v xml:space="preserve">800円／日
-（10時間を超える場合100円／30分）</v>
-      </c>
-      <c r="P27" t="str" xml:space="preserve">
-        <v xml:space="preserve">3,000円
-（兄弟姉妹2人目以降1,000円）</v>
-      </c>
-      <c r="Q27" t="str">
-        <v>—</v>
-      </c>
-      <c r="R27" t="str">
-        <v>50円/日</v>
-      </c>
-      <c r="S27" t="str">
-        <v>250円/日</v>
-      </c>
-      <c r="T27" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="28" xml:space="preserve">
-      <c r="A28" t="str">
-        <v>27</v>
-      </c>
-      <c r="B28" t="str">
-        <v>34.3314857</v>
-      </c>
-      <c r="C28" t="str">
-        <v>134.0923198</v>
-      </c>
-      <c r="D28" t="str">
-        <v>春日こども園</v>
-      </c>
-      <c r="E28" t="str">
-        <v>春日町1287番地1</v>
-      </c>
-      <c r="F28" t="str">
-        <v>087-843-3689</v>
-      </c>
-      <c r="G28" t="str">
-        <v>小学1～6年生</v>
-      </c>
-      <c r="H28" t="str">
-        <v>50人ぐらい</v>
-      </c>
-      <c r="I28" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J28" t="str" xml:space="preserve">
         <v xml:space="preserve">放課後～17:30
 土曜日　8:30～17:00</v>
       </c>
-      <c r="K28" t="str" xml:space="preserve">
+      <c r="K27" t="str" xml:space="preserve">
         <v xml:space="preserve">5,000円/月（8月を除く）
 諸費（教材代）2,000円/月</v>
       </c>
-      <c r="L28" t="str">
+      <c r="L27" t="str">
         <v>月～金　7:00～8:30、17:30～19:00  　                      土曜日　7:00～8:30                                                               ※土曜日の夕方延長保育はありません。</v>
       </c>
-      <c r="M28" t="str" xml:space="preserve">
+      <c r="M27" t="str" xml:space="preserve">
         <v xml:space="preserve">＜登録＞ 
 ７:00～7:30 3,000円/月  17:31～18:00 2,000円/月
 ７:31～8:00 2,000円/月  18:01～18:30 2,000円/月+400円/回
 8:01～8:30 1,000円/月  18:31～19:00 2,000円/月 +900円/回</v>
       </c>
-      <c r="N28" t="str" xml:space="preserve">
+      <c r="N27" t="str" xml:space="preserve">
         <v xml:space="preserve">8:30～17:30
 （延長は平常時と同じ）</v>
       </c>
-      <c r="O28" t="str" xml:space="preserve">
+      <c r="O27" t="str" xml:space="preserve">
         <v xml:space="preserve">100円/時間
 諸費（教材代）2,000円/月</v>
       </c>
-      <c r="P28" t="str" xml:space="preserve">
+      <c r="P27" t="str" xml:space="preserve">
         <v xml:space="preserve">5,000円/年
 （保険料800円を含む）</v>
       </c>
+      <c r="Q27" t="str">
+        <v>—</v>
+      </c>
+      <c r="R27" t="str">
+        <v>利用料に含む</v>
+      </c>
+      <c r="S27" t="str">
+        <v>各自持参</v>
+      </c>
+      <c r="T27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <v>34.351002306853445</v>
+      </c>
+      <c r="C28" t="str">
+        <v>134.08897881924293</v>
+      </c>
+      <c r="D28" t="str">
+        <v>スマはぴキッズ学童クラブ</v>
+      </c>
+      <c r="E28" t="str">
+        <v>屋島西町2484番地11</v>
+      </c>
+      <c r="F28" t="str">
+        <v>087-843-0188</v>
+      </c>
+      <c r="G28" t="str">
+        <v>小学１～６年生</v>
+      </c>
+      <c r="H28" t="str">
+        <v>39人</v>
+      </c>
+      <c r="I28" t="str" xml:space="preserve">
+        <v xml:space="preserve">月～土曜日
+土曜日については施設の指定する日のみ</v>
+      </c>
+      <c r="J28" t="str" xml:space="preserve">
+        <v xml:space="preserve">放課後～18:30
+土曜日 8:30～18:30</v>
+      </c>
+      <c r="K28" t="str">
+        <v>13,000円/月</v>
+      </c>
+      <c r="L28" t="str">
+        <v>8:00～８:30、18:30～19:00</v>
+      </c>
+      <c r="M28" t="str">
+        <v>500円/30分</v>
+      </c>
+      <c r="N28" t="str">
+        <v>8:30～18:30</v>
+      </c>
+      <c r="O28" t="str" xml:space="preserve">
+        <v xml:space="preserve">1、3、4、7、12月　18,000円
+8月　30,000円</v>
+      </c>
+      <c r="P28" t="str">
+        <v>5,000円/年</v>
+      </c>
       <c r="Q28" t="str">
-        <v>—</v>
+        <v>800円/年</v>
       </c>
       <c r="R28" t="str">
-        <v>利用料に含む</v>
+        <v>備考参照</v>
       </c>
       <c r="S28" t="str">
         <v>各自持参</v>
       </c>
-      <c r="T28" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="29" xml:space="preserve">
-      <c r="A29" t="str">
-        <v>28</v>
-      </c>
-      <c r="B29" t="str">
-        <v>34.3510446</v>
-      </c>
-      <c r="C29" t="str">
-        <v>134.0867238</v>
-      </c>
-      <c r="D29" t="str">
-        <v>スマはぴキッズ学童クラブ</v>
-      </c>
-      <c r="E29" t="str">
-        <v>屋島西町2484番地11</v>
-      </c>
-      <c r="F29" t="str">
-        <v>087-843-0188</v>
-      </c>
-      <c r="G29" t="str">
-        <v>小学１～６年生</v>
-      </c>
-      <c r="H29" t="str">
-        <v>39人</v>
-      </c>
-      <c r="I29" t="str" xml:space="preserve">
-        <v xml:space="preserve">月～土曜日
-土曜日については施設の指定する日のみ</v>
-      </c>
-      <c r="J29" t="str" xml:space="preserve">
-        <v xml:space="preserve">放課後～18:30
-土曜日 8:30～18:30</v>
-      </c>
-      <c r="K29" t="str">
-        <v>13,000円/月</v>
-      </c>
-      <c r="L29" t="str">
-        <v>8:00～８:30、18:30～19:00</v>
-      </c>
-      <c r="M29" t="str">
-        <v>500円/30分</v>
-      </c>
-      <c r="N29" t="str">
-        <v>8:30～18:30</v>
-      </c>
-      <c r="O29" t="str" xml:space="preserve">
-        <v xml:space="preserve">1、3、4、7、12月　18,000円
-8月　30,000円</v>
-      </c>
-      <c r="P29" t="str">
-        <v>5,000円/年</v>
-      </c>
-      <c r="Q29" t="str">
-        <v>800円/年</v>
-      </c>
-      <c r="R29" t="str">
-        <v>備考参照</v>
-      </c>
-      <c r="S29" t="str">
-        <v>各自持参</v>
-      </c>
-      <c r="T29" t="str" xml:space="preserve">
+      <c r="T28" t="str" xml:space="preserve">
         <v xml:space="preserve">兄弟姉妹割引有（２人目以降利用料、送迎費２割引）
 母子父子家庭は登録料免除
 ☆Ｒ３年度児童募集にあたりキャンペーン実施中☆
 【利用料；平常時7,000円/月（別途おやつ・運営費代1,500円）長期休暇（８月）10,000円（別途おやつ・運営費2,000円）】</v>
       </c>
     </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <v>34.3033239</v>
+      </c>
+      <c r="C29" t="str">
+        <v>133.9470053</v>
+      </c>
+      <c r="D29" t="str">
+        <v>いずみこども園</v>
+      </c>
+      <c r="E29" t="str">
+        <v>国分寺町国分2408番地</v>
+      </c>
+      <c r="F29" t="str">
+        <v>087-874-0882</v>
+      </c>
+      <c r="G29" t="str">
+        <v>小学1～６年生（１～３年生優先）</v>
+      </c>
+      <c r="H29" t="str">
+        <v>40人</v>
+      </c>
+      <c r="I29" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J29" t="str" xml:space="preserve">
+        <v xml:space="preserve">放課後～18:00（延長保育有）
+土曜日　8:00～18:00</v>
+      </c>
+      <c r="K29" t="str" xml:space="preserve">
+        <v xml:space="preserve">【定期】　月～金曜日　4,500円/月
+　　　　　　土曜日   　1,000円/半日</v>
+      </c>
+      <c r="L29" t="str">
+        <v>7:30～8:00、18:00～19:00　　　　　　　　　　　　　　　　　※土曜日の夕方延長保育はありません。</v>
+      </c>
+      <c r="M29" t="str" xml:space="preserve">
+        <v xml:space="preserve">　   7：30～8：00　2,000円/月
+  18：00～19：00　3,000円/月
+＜単発＞  20分につき100円</v>
+      </c>
+      <c r="N29" t="str" xml:space="preserve">
+        <v xml:space="preserve">平日土曜共　8:00～18:00
+（朝・夕延長保育有）</v>
+      </c>
+      <c r="O29" t="str" xml:space="preserve">
+        <v xml:space="preserve">月～金曜日　  8,000円/月
+土曜日　1,000円/半日</v>
+      </c>
+      <c r="P29" t="str">
+        <v>上記利用料に含む</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>上記利用料に含む</v>
+      </c>
+      <c r="R29" t="str">
+        <v>1,500円/月</v>
+      </c>
+      <c r="S29" t="str">
+        <v>350円/日</v>
+      </c>
+      <c r="T29" t="str">
+        <v>保育園行事等の事情で、利用制限をお願いする時があります。</v>
+      </c>
+    </row>
     <row r="30" xml:space="preserve">
       <c r="A30" t="str">
         <v>29</v>
       </c>
       <c r="B30" t="str">
-        <v>34.3033239</v>
+        <v>34.333379</v>
       </c>
       <c r="C30" t="str">
-        <v>133.9470053</v>
+        <v>134.0430366</v>
       </c>
       <c r="D30" t="str">
-        <v>いずみこども園</v>
+        <v>中野保育所児童クラブ</v>
       </c>
       <c r="E30" t="str">
-        <v>国分寺町国分2408番地</v>
+        <v>中野町２７番地５</v>
       </c>
       <c r="F30" t="str">
-        <v>087-874-0882</v>
+        <v>090-7510-0551</v>
       </c>
       <c r="G30" t="str">
-        <v>小学1～６年生（１～３年生優先）</v>
+        <v>小学1～6年生</v>
       </c>
       <c r="H30" t="str">
-        <v>40人</v>
+        <v>３５人</v>
       </c>
       <c r="I30" t="str">
         <v>月～土曜日</v>
       </c>
       <c r="J30" t="str" xml:space="preserve">
-        <v xml:space="preserve">放課後～18:00（延長保育有）
-土曜日　8:00～18:00</v>
-      </c>
-      <c r="K30" t="str" xml:space="preserve">
-        <v xml:space="preserve">【定期】　月～金曜日　4,500円/月
-　　　　　　土曜日   　1,000円/半日</v>
-      </c>
-      <c r="L30" t="str">
-        <v>7:30～8:00、18:00～19:00　　　　　　　　　　　　　　　　　※土曜日の夕方延長保育はありません。</v>
-      </c>
-      <c r="M30" t="str" xml:space="preserve">
-        <v xml:space="preserve">　   7：30～8：00　2,000円/月
-  18：00～19：00　3,000円/月
-＜単発＞  20分につき100円</v>
-      </c>
-      <c r="N30" t="str" xml:space="preserve">
-        <v xml:space="preserve">平日土曜共　8:00～18:00
-（朝・夕延長保育有）</v>
-      </c>
-      <c r="O30" t="str" xml:space="preserve">
-        <v xml:space="preserve">月～金曜日　  8,000円/月
-土曜日　1,000円/半日</v>
-      </c>
-      <c r="P30" t="str">
-        <v>上記利用料に含む</v>
-      </c>
-      <c r="Q30" t="str">
-        <v>上記利用料に含む</v>
-      </c>
-      <c r="R30" t="str">
-        <v>1,500円/月</v>
-      </c>
-      <c r="S30" t="str">
-        <v>350円/日</v>
-      </c>
-      <c r="T30" t="str">
-        <v>保育園行事等の事情で、利用制限をお願いする時があります。</v>
-      </c>
-    </row>
-    <row r="31" xml:space="preserve">
-      <c r="A31" t="str">
-        <v>30</v>
-      </c>
-      <c r="B31" t="str">
-        <v>34.333379</v>
-      </c>
-      <c r="C31" t="str">
-        <v>134.0430366</v>
-      </c>
-      <c r="D31" t="str">
-        <v>中野保育所児童クラブ</v>
-      </c>
-      <c r="E31" t="str">
-        <v>中野町２７番地５</v>
-      </c>
-      <c r="F31" t="str">
-        <v>090-7510-0551</v>
-      </c>
-      <c r="G31" t="str">
-        <v>小学1～6年生</v>
-      </c>
-      <c r="H31" t="str">
-        <v>３５人</v>
-      </c>
-      <c r="I31" t="str">
-        <v>月～土曜日</v>
-      </c>
-      <c r="J31" t="str" xml:space="preserve">
         <v xml:space="preserve">放課後～18:30
 土曜日　8:30～17:00</v>
       </c>
-      <c r="K31" t="str" xml:space="preserve">
+      <c r="K30" t="str" xml:space="preserve">
         <v xml:space="preserve">基本利用料　10,000円/月
 　　土曜日　　8:30～13:00　500円
 　　　　　　　　8:30～17:00　1,000円</v>
       </c>
-      <c r="L31" t="str" xml:space="preserve">
+      <c r="L30" t="str" xml:space="preserve">
         <v xml:space="preserve">7:30～8:00
 8:01～8:30
 18:30～19:00
 19:01～19:30</v>
       </c>
-      <c r="M31" t="str" xml:space="preserve">
+      <c r="M30" t="str" xml:space="preserve">
         <v xml:space="preserve">下記以外　300円/30分
 19:01～19:30　500円</v>
       </c>
-      <c r="N31" t="str">
+      <c r="N30" t="str">
         <v>8:30～18:30</v>
       </c>
-      <c r="O31" t="str" xml:space="preserve">
+      <c r="O30" t="str" xml:space="preserve">
         <v xml:space="preserve">通常利用者　８月のみ15,000円/月
 長期休暇のみ利用者　春、冬休み10,000円/月
 夏休み期間中　20,000円/月</v>
       </c>
+      <c r="P30" t="str">
+        <v>5,000円/年</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>登録料に含む</v>
+      </c>
+      <c r="R30" t="str">
+        <v>利用料に含む</v>
+      </c>
+      <c r="S30" t="str">
+        <v>各自持参もしくは注文あり</v>
+      </c>
+      <c r="T30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <v>34.30957784766427</v>
+      </c>
+      <c r="C31" t="str">
+        <v>134.0462155350798</v>
+      </c>
+      <c r="D31" t="str">
+        <v>にこにこ保育教育研究センター 付属学童クラブのびのび</v>
+      </c>
+      <c r="E31" t="str">
+        <v>太田下町2350番地1</v>
+      </c>
+      <c r="F31" t="str">
+        <v>087-802-5360</v>
+      </c>
+      <c r="G31" t="str">
+        <v>小学1～6年生</v>
+      </c>
+      <c r="H31" t="str">
+        <v xml:space="preserve"> ３０人</v>
+      </c>
+      <c r="I31" t="str">
+        <v>月～土曜日</v>
+      </c>
+      <c r="J31" t="str">
+        <v>放課後～18:30 土曜日　8:00～18:30</v>
+      </c>
+      <c r="K31" t="str">
+        <v>【定期】月～金　12,000円/月 　　　　月～土　16,000円/月 【不定期】8:00～13:00　1,000円 13:00～18:30　1,200円(おやつ含む)</v>
+      </c>
+      <c r="L31" t="str">
+        <v>7：30～8：00 18：30～19：00</v>
+      </c>
+      <c r="M31" t="str">
+        <v xml:space="preserve">500円/30分 </v>
+      </c>
+      <c r="N31" t="str">
+        <v xml:space="preserve"> 8:00～18:30</v>
+      </c>
+      <c r="O31" t="str">
+        <v>【定期】1,3,4,7,12月 月～金　16,000円/月 月～土　20,000円/月 ８月　月～金　22,000円/月　月～土　26,000円/月 【不定期】8:00～13:00　1,000円/日 13:00～18:30　1,200円/日(おやつ含む)</v>
+      </c>
       <c r="P31" t="str">
-        <v>5,000円/年</v>
+        <v>新規3,000円/年 継続2,000円/年</v>
       </c>
       <c r="Q31" t="str">
-        <v>登録料に含む</v>
+        <v xml:space="preserve"> 800円/年</v>
       </c>
       <c r="R31" t="str">
-        <v>利用料に含む</v>
+        <v>月～金　2,000円/月 月～土　2,500円/月</v>
       </c>
       <c r="S31" t="str">
-        <v>各自持参もしくは注文あり</v>
+        <v xml:space="preserve">昼食450円/１食 </v>
       </c>
       <c r="T31" t="str">
-        <v/>
+        <v>FAX：087-802-5315</v>
       </c>
     </row>
     <row r="32">
@@ -2576,61 +2561,61 @@
         <v>31</v>
       </c>
       <c r="B32" t="str">
-        <v>34.30957784766427</v>
+        <v>34.34328404459286</v>
       </c>
       <c r="C32" t="str">
-        <v>134.0462155350798</v>
+        <v>134.01707847516133</v>
       </c>
       <c r="D32" t="str">
-        <v>にこにこ保育教育研究センター 付属学童クラブのびのび</v>
+        <v>放課後児童クラブにじいろキッズ</v>
       </c>
       <c r="E32" t="str">
-        <v>太田下町2350番地1</v>
+        <v>郷東町117番地</v>
       </c>
       <c r="F32" t="str">
-        <v>087-802-5360</v>
+        <v>087-881-8063</v>
       </c>
       <c r="G32" t="str">
-        <v>小学1～6年生</v>
+        <v>小学１～６年生</v>
       </c>
       <c r="H32" t="str">
-        <v xml:space="preserve"> ３０人</v>
+        <v>２５人</v>
       </c>
       <c r="I32" t="str">
         <v>月～土曜日</v>
       </c>
       <c r="J32" t="str">
-        <v>放課後～18:30 土曜日　8:00～18:30</v>
+        <v>放課後～18:30 土曜日 8:30～18:30</v>
       </c>
       <c r="K32" t="str">
-        <v>【定期】月～金　12,000円/月 　　　　月～土　16,000円/月 【不定期】8:00～13:00　1,000円 13:00～18:30　1,200円(おやつ含む)</v>
+        <v>基本利用料(月極)　6,000円/月 基本利用料(スポット)　1,500円/日(おやつ 代含む)</v>
       </c>
       <c r="L32" t="str">
-        <v>7：30～8：00 18：30～19：00</v>
+        <v>8:00～8:30(8月及び長期休暇のみ) 18:30～19:00</v>
       </c>
       <c r="M32" t="str">
         <v xml:space="preserve">500円/30分 </v>
       </c>
       <c r="N32" t="str">
-        <v xml:space="preserve"> 8:00～18:30</v>
+        <v>8:30～18:30</v>
       </c>
       <c r="O32" t="str">
-        <v>【定期】1,3,4,7,12月 月～金　16,000円/月 月～土　20,000円/月 ８月　月～金　22,000円/月　月～土　26,000円/月 【不定期】8:00～13:00　1,000円/日 13:00～18:30　1,200円/日(おやつ含む)</v>
+        <v>基本利用料(月極)　8月のみ9,000円/月 基本利用料(スポット)　2,000円/日(おやつ代含む) 基本利用料(スポット8月のみ)　13,000円/月</v>
       </c>
       <c r="P32" t="str">
-        <v>新規3,000円/年 継続2,000円/年</v>
+        <v>初回5,000円/年 継続費 5,000円/年(月額コース(通常時)のみ年度更新時に徴 収)</v>
       </c>
       <c r="Q32" t="str">
-        <v xml:space="preserve"> 800円/年</v>
+        <v>800円/年</v>
       </c>
       <c r="R32" t="str">
-        <v>月～金　2,000円/月 月～土　2,500円/月</v>
+        <v>通常時(月極)1,500円/月(8月のみ2,000円) スポット(8月のみ)2,000円/月</v>
       </c>
       <c r="S32" t="str">
-        <v xml:space="preserve">昼食450円/１食 </v>
+        <v>各自持参又は弁当注文あり</v>
       </c>
       <c r="T32" t="str">
-        <v>FAX：087-802-5315</v>
+        <v>タクシー送迎料200円～/回(月極利用者無料) ※校区によって変動有、平日限定 兄弟割引：2人目から利用料及びタクシー送迎料2割引 き 市民税非課税世帯のうちひとり親家庭：登録料免除 希望者はサンハート体操教室割引あり</v>
       </c>
     </row>
     <row r="33">
@@ -2638,61 +2623,61 @@
         <v>32</v>
       </c>
       <c r="B33" t="str">
-        <v>34.34328404459286</v>
+        <v>34.338722183705485</v>
       </c>
       <c r="C33" t="str">
-        <v>134.01707847516133</v>
+        <v>134.065357129135</v>
       </c>
       <c r="D33" t="str">
-        <v>放課後児童クラブにじいろキッズ</v>
+        <v>ちゃぷちゃぷ放課後児童クラブ</v>
       </c>
       <c r="E33" t="str">
-        <v>郷東町117番地</v>
+        <v xml:space="preserve"> 松島町2丁目12番地８号</v>
       </c>
       <c r="F33" t="str">
-        <v>087-881-8063</v>
+        <v>087-802-2237</v>
       </c>
       <c r="G33" t="str">
-        <v>小学１～６年生</v>
+        <v>小学1～６年生</v>
       </c>
       <c r="H33" t="str">
-        <v>２５人</v>
+        <v>10人</v>
       </c>
       <c r="I33" t="str">
-        <v>月～土曜日</v>
+        <v xml:space="preserve"> 月～土曜日</v>
       </c>
       <c r="J33" t="str">
-        <v>放課後～18:30 土曜日 8:30～18:30</v>
+        <v>放課後～18:30 土曜日　8:30～13:00</v>
       </c>
       <c r="K33" t="str">
-        <v>基本利用料(月極)　6,000円/月 基本利用料(スポット)　1,500円/日(おやつ 代含む)</v>
+        <v>【定期】月～金　15,000円/月 土曜日　8:00～13:00　1,000円 【不定期】　月～金　2,500円/日 土曜日　8:00～13:00　1,500円</v>
       </c>
       <c r="L33" t="str">
-        <v>8:00～8:30(8月及び長期休暇のみ) 18:30～19:00</v>
+        <v>月～金　18:30～19:00 長期休暇及び振替休日　7:30～8:30</v>
       </c>
       <c r="M33" t="str">
-        <v xml:space="preserve">500円/30分 </v>
+        <v>500円/30分</v>
       </c>
       <c r="N33" t="str">
         <v>8:30～18:30</v>
       </c>
       <c r="O33" t="str">
-        <v>基本利用料(月極)　8月のみ9,000円/月 基本利用料(スポット)　2,000円/日(おやつ代含む) 基本利用料(スポット8月のみ)　13,000円/月</v>
+        <v>定期　夏季休暇月～金曜日：7月20,000円,8月25,000円 冬季・春季休暇月～金曜日：15,000円+800円（日額） 不定期　夏季・冬季・春季休暇3,000円（日額） ※定期利用・不定期利用ともに土曜日：8時30分～13時　 2,500円</v>
       </c>
       <c r="P33" t="str">
-        <v>初回5,000円/年 継続費 5,000円/年(月額コース(通常時)のみ年度更新時に徴 収)</v>
+        <v>5,000円/年 長期休暇のみ3,000円/年</v>
       </c>
       <c r="Q33" t="str">
-        <v>800円/年</v>
+        <v>—</v>
       </c>
       <c r="R33" t="str">
-        <v>通常時(月極)1,500円/月(8月のみ2,000円) スポット(8月のみ)2,000円/月</v>
+        <v>利用料に含む</v>
       </c>
       <c r="S33" t="str">
-        <v>各自持参又は弁当注文あり</v>
+        <v>実費</v>
       </c>
       <c r="T33" t="str">
-        <v>タクシー送迎料200円～/回(月極利用者無料) ※校区によって変動有、平日限定 兄弟割引：2人目から利用料及びタクシー送迎料2割引 き 市民税非課税世帯のうちひとり親家庭：登録料免除 希望者はサンハート体操教室割引あり</v>
+        <v>送迎代：実費 医療的ケア児加算料金：内容により要相談 キャンセル料：利用日前日19時まで　なし 利用日前日19時～営業開始時間まで　利用料の50％ 営業開始時間以降/連絡なし　利用料の100％ 生活保護世帯は利用料及び延長料免除</v>
       </c>
     </row>
     <row r="34">
@@ -2700,37 +2685,37 @@
         <v>33</v>
       </c>
       <c r="B34" t="str">
-        <v>34.338722183705485</v>
+        <v>34.31108543801221</v>
       </c>
       <c r="C34" t="str">
-        <v>134.065357129135</v>
+        <v>134.05141756886752</v>
       </c>
       <c r="D34" t="str">
-        <v>ちゃぷちゃぷ放課後児童クラブ</v>
+        <v>スマはぴキッズ学童クラブふせいしの杜</v>
       </c>
       <c r="E34" t="str">
-        <v xml:space="preserve"> 松島町2丁目12番地８号</v>
+        <v>高松市伏石町874番地15</v>
       </c>
       <c r="F34" t="str">
-        <v>087-802-2237</v>
+        <v>087-843-1488</v>
       </c>
       <c r="G34" t="str">
-        <v>小学1～６年生</v>
+        <v>小学１～６年生</v>
       </c>
       <c r="H34" t="str">
-        <v>10人</v>
+        <v>39人</v>
       </c>
       <c r="I34" t="str">
-        <v xml:space="preserve"> 月～土曜日</v>
+        <v>月～土曜日</v>
       </c>
       <c r="J34" t="str">
-        <v>放課後～18:30 土曜日　8:30～13:00</v>
+        <v>放課後～18:30 土曜日 8:30～17:30</v>
       </c>
       <c r="K34" t="str">
-        <v>【定期】月～金　15,000円/月 土曜日　8:00～13:00　1,000円 【不定期】　月～金　2,500円/日 土曜日　8:00～13:00　1,500円</v>
+        <v>基本利用料(定期)　13,000円/月 (1,3,4,7,12月18,000円/月) 基本利用料(スポット)　1,500円/日(長期休 暇,土曜日2,000円)</v>
       </c>
       <c r="L34" t="str">
-        <v>月～金　18:30～19:00 長期休暇及び振替休日　7:30～8:30</v>
+        <v>8:00～8:30 18:30～19:00</v>
       </c>
       <c r="M34" t="str">
         <v>500円/30分</v>
@@ -2739,22 +2724,22 @@
         <v>8:30～18:30</v>
       </c>
       <c r="O34" t="str">
-        <v>定期　夏季休暇月～金曜日：7月20,000円,8月25,000円 冬季・春季休暇月～金曜日：15,000円+800円（日額） 不定期　夏季・冬季・春季休暇3,000円（日額） ※定期利用・不定期利用ともに土曜日：8時30分～13時　 2,500円</v>
+        <v>基本利用料(定期)　8月のみ30,000円/月 基本利用料(スポット)　2,000円/日</v>
       </c>
       <c r="P34" t="str">
-        <v>5,000円/年 長期休暇のみ3,000円/年</v>
+        <v>初回5,000円/年 継続費 5,000円/年</v>
       </c>
       <c r="Q34" t="str">
-        <v>—</v>
+        <v>800円/年</v>
       </c>
       <c r="R34" t="str">
-        <v>利用料に含む</v>
+        <v>【定期】利用料に含む</v>
       </c>
       <c r="S34" t="str">
-        <v>実費</v>
+        <v>各自持参</v>
       </c>
       <c r="T34" t="str">
-        <v>送迎代：実費 医療的ケア児加算料金：内容により要相談 キャンセル料：利用日前日19時まで　なし 利用日前日19時～営業開始時間まで　利用料の50％ 営業開始時間以降/連絡なし　利用料の100％ 生活保護世帯は利用料及び延長料免除</v>
+        <v>一人親家庭は登録料、継続料免除 兄弟利用２人目から利用料、送迎費を 20％免除</v>
       </c>
     </row>
     <row r="35">
@@ -2762,31 +2747,31 @@
         <v>34</v>
       </c>
       <c r="B35" t="str">
-        <v>34.31108543801221</v>
+        <v>34.28542903678199</v>
       </c>
       <c r="C35" t="str">
-        <v>134.05141756886752</v>
+        <v>134.00364417997116</v>
       </c>
       <c r="D35" t="str">
-        <v>スマはぴキッズ学童クラブふせいしの杜</v>
+        <v>スマはぴキッズ学童クラブえんざの杜</v>
       </c>
       <c r="E35" t="str">
-        <v>高松市伏石町874番地15</v>
+        <v>高松市円座町西村129番16</v>
       </c>
       <c r="F35" t="str">
         <v>087-843-1488</v>
       </c>
       <c r="G35" t="str">
-        <v>小学１～６年生</v>
+        <v xml:space="preserve"> 小学１～６年生</v>
       </c>
       <c r="H35" t="str">
-        <v>39人</v>
+        <v>17人</v>
       </c>
       <c r="I35" t="str">
         <v>月～土曜日</v>
       </c>
       <c r="J35" t="str">
-        <v>放課後～18:30 土曜日 8:30～17:30</v>
+        <v>放課後～18:30 土曜日 8:30～18:30</v>
       </c>
       <c r="K35" t="str">
         <v>基本利用料(定期)　13,000円/月 (1,3,4,7,12月18,000円/月) 基本利用料(スポット)　1,500円/日(長期休 暇,土曜日2,000円)</v>
@@ -2801,10 +2786,10 @@
         <v>8:30～18:30</v>
       </c>
       <c r="O35" t="str">
-        <v>基本利用料(定期)　8月のみ30,000円/月 基本利用料(スポット)　2,000円/日</v>
+        <v xml:space="preserve">基本利用料(定期)　8月のみ30,000円/月 基本利用料(スポット)　2,000円/日 </v>
       </c>
       <c r="P35" t="str">
-        <v>初回5,000円/年 継続費 5,000円/年</v>
+        <v xml:space="preserve">初回5,000円/年 継続費 5,000円/年 </v>
       </c>
       <c r="Q35" t="str">
         <v>800円/年</v>
@@ -2824,61 +2809,61 @@
         <v>35</v>
       </c>
       <c r="B36" t="str">
-        <v>34.28542903678199</v>
+        <v>34.340206028199134</v>
       </c>
       <c r="C36" t="str">
-        <v>134.00364417997116</v>
+        <v>134.0825069153638</v>
       </c>
       <c r="D36" t="str">
-        <v>スマはぴキッズ学童クラブえんざの杜</v>
+        <v>学童保育サンダ☆キッズ　 ※R6.4.1開所予定</v>
       </c>
       <c r="E36" t="str">
-        <v>高松市円座町西村129番16</v>
+        <v>高松市木太町2699番地1</v>
       </c>
       <c r="F36" t="str">
-        <v>087-843-1488</v>
+        <v xml:space="preserve"> 087-832-5566</v>
       </c>
       <c r="G36" t="str">
         <v xml:space="preserve"> 小学１～６年生</v>
       </c>
       <c r="H36" t="str">
-        <v>17人</v>
+        <v>25人</v>
       </c>
       <c r="I36" t="str">
-        <v>月～土曜日</v>
+        <v xml:space="preserve"> 月～土曜日</v>
       </c>
       <c r="J36" t="str">
-        <v>放課後～18:30 土曜日 8:30～18:30</v>
+        <v>放課後～18：30 土曜日8:30～18:00</v>
       </c>
       <c r="K36" t="str">
-        <v>基本利用料(定期)　13,000円/月 (1,3,4,7,12月18,000円/月) 基本利用料(スポット)　1,500円/日(長期休 暇,土曜日2,000円)</v>
+        <v>基本利用料　13,000円/月</v>
       </c>
       <c r="L36" t="str">
-        <v>8:00～8:30 18:30～19:00</v>
+        <v>18:30～19:00</v>
       </c>
       <c r="M36" t="str">
         <v>500円/30分</v>
       </c>
       <c r="N36" t="str">
-        <v>8:30～18:30</v>
+        <v>8:00～18:30</v>
       </c>
       <c r="O36" t="str">
-        <v xml:space="preserve">基本利用料(定期)　8月のみ30,000円/月 基本利用料(スポット)　2,000円/日 </v>
+        <v>8月20,000円/月</v>
       </c>
       <c r="P36" t="str">
-        <v xml:space="preserve">初回5,000円/年 継続費 5,000円/年 </v>
+        <v>5,000円/年</v>
       </c>
       <c r="Q36" t="str">
-        <v>800円/年</v>
+        <v xml:space="preserve"> 800円/年</v>
       </c>
       <c r="R36" t="str">
-        <v>【定期】利用料に含む</v>
+        <v>2,000円/月</v>
       </c>
       <c r="S36" t="str">
         <v>各自持参</v>
       </c>
       <c r="T36" t="str">
-        <v>一人親家庭は登録料、継続料免除 兄弟利用２人目から利用料、送迎費を 20％免除</v>
+        <v>ひとり親家庭登録料免除 兄弟姉妹2名以上の場合利用料20％免除</v>
       </c>
     </row>
   </sheetData>
